--- a/excel/real_world_graph_profile.xlsx
+++ b/excel/real_world_graph_profile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
   <si>
     <t>Polak</t>
   </si>
@@ -47,6 +47,66 @@
   </si>
   <si>
     <t>GroupTC-HS</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>CF</t>
   </si>
 </sst>
 </file>
@@ -404,669 +464,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>71.096935</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>26.134328</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>80.182722</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>59.952513</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>92.91512</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>78.41149900000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>73.275246</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>68.583592</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>83.989968</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>75.082899</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>46.898265</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>14.485649</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>73.50709500000001</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>51.584514</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>94.81455</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>74.95522200000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>70.197936</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>65.857313</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>68.781722</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>82.019347</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>53.673549</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>13.520871</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>66.303084</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>43.323811</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>91.237931</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>72.857781</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>70.95126500000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>66.73074800000001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>72.767033</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>82.045283</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>57.878614</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>29.69373</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>90.63879799999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>44.735988</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>98.262</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>70.224537</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>74.993487</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>71.340739</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>57.552355</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>72.361197</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>36.128928</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>8.984707999999999</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>90.80293399999999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>48.647074</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>85.617887</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>86.284555</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>64.637004</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>66.668392</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>85.299578</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>92.103042</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>55.391418</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>19.475032</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>76.298435</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>51.553014</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>86.794785</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>79.643747</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>68.736863</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>65.287798</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>78.943915</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>78.518494</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>75.952538</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>26.86503</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>75.135965</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>48.682663</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>87.229564</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>80.559758</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>70.116917</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>65.95926900000001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>83.625508</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>70.634308</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>40.905612</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>15.332641</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>73.978112</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>47.215284</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>84.291011</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>81.58506</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>67.92412299999999</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>64.993788</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>78.673091</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>81.370875</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>48.081503</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>13.682212</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>69.739875</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>36.061057</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>85.84499700000001</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>73.253607</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>71.03910500000001</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>67.744035</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>70.860857</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>83.427176</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>59.434924</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>25.504139</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>71.86747200000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>60.213108</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>85.61135299999999</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>87.219945</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>68.101017</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>63.428348</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>84.33813499999999</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>89.82231400000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>49.733634</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>22.796253</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>80.424046</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>73.068952</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>82.037983</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>91.282737</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>61.381189</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>63.768987</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>90.731971</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>94.00542</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>55.778072</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>22.637428</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>72.16645</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>57.152317</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>81.499467</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>85.713116</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>66.81540699999999</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>64.022541</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>85.49573700000001</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>87.242378</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
         <v>55.197016</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>23.039116</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>72.72393599999999</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>59.988302</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>80.391963</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>86.497066</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>65.597256</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>63.957057</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>87.092212</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>87.95871099999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
         <v>61.941067</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>95.24512</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>45.054</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>98.540556</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>56.612868</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>77.911091</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>74.225747</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>60.086561</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>72.69129700000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
         <v>65.01581299999999</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>29.849611</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>80.374375</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>86.69058099999999</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>82.157805</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>95.189345</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>65.424575</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>62.712837</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>97.456936</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>91.931695</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
         <v>57.770987</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>30.226775</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>75.56938100000001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>77.252032</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>86.69241700000001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>91.383447</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>61.661477</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>61.783523</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>93.565331</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>93.01155199999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
         <v>49.692605</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>23.934382</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>75.044445</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>70.863392</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>82.63546599999999</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>90.182204</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>62.831409</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>62.980988</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>88.843503</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>88.74283800000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
         <v>61.234133</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>95.108318</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>44.503538</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>98.545295</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>53.872422</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>77.90059100000001</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>74.17545</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>59.585039</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>72.695447</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
         <v>40.991153</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>81.21608000000001</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>88.075011</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>73.837838</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>88.986169</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>28.447416</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>58.028088</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>97.125422</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>94.228649</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
         <v>59.085644</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>78.271619</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>81.097742</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>74.84712500000001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>91.978328</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>61.607253</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>62.954354</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>93.187765</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>94.30764000000001</v>
       </c>
     </row>
@@ -1077,669 +1197,729 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>1724134</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>7520637</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>25694814</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9822684</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4030290</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>45893414</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10779053</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5359741</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2893866</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1767780</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>1288213</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>7638871</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>24871648</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9122328</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1689390</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>57235324</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9426689</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5500611</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>968919</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>363417</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>2613298</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>14561275</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>55493730</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>21053186</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6344838</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>118500873</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>21613976</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>11346193</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2261762</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>746526</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>1262877</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>21885814</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>54489459</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>22625676</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>812974</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>288828199</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21340837</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>13469519</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>731439</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>344214</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>37188435</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>164855310</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>133028231</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>48539393</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>24084726</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>217509649</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>65645936</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>35174125</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13002124</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>8156204</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>16190200</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>44736533</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>154558888</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>49458748</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26492424</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>209288611</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>55956497</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>33278237</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>13013369</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5748057</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>12698660</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>37688192</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>163183144</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>59805343</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>28352772</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>240859015</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>72028669</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>34022283</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>20029061</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10288161</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>43167751</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>98465477</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>298290946</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>103431272</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>48437496</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>414939287</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>119743196</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>68682736</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>26544808</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>11917277</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>22855690</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>112072035</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>376450607</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>144421794</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>31691016</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>631223846</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>143936709</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>79809399</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>15178391</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5202538</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>97399027</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>156518133</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>726380586</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>213528265</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>182724900</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>793799268</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>253611943</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>141801296</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>83410957</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>19783750</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>470101628</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>551622055</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1184932452</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>408279882</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>493223976</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1429670152</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>794607443</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>424144707</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>291912635</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>149114744</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>166382154</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>285312578</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1097041861</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>350999087</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>255081984</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1289217818</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>441412697</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>238860068</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>150890037</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>53446776</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
         <v>244732710</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>375628134</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1402920691</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>456202135</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>368304288</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1631982712</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>609617223</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>318538201</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>230537257</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>84605647</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
         <v>20904118</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1172717230</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>451779289</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>13303548</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3517189557</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>434161015</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>283122845</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>13905573</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>6453355</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
         <v>4335561322</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3219236777</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8031016936</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>4453954716</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>7331468586</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>9735602238</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>16920593132</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2631924578</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5492193712</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1866387963</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
         <v>1528944333</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1188423985</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5027572549</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1734129015</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2279069172</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5203261857</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3272876921</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1320979747</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1459167865</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>487375265</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
         <v>1801273185</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1800077895</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>6037297140</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1939228805</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2157254772</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6751389791</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3127302743</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1770209991</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1255456801</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>539683293</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
         <v>83788550</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4536215018</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1792865035</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>52767935</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>13093971809</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1724080375</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1145902312</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>55708766</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>26136535</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
         <v>74720079634</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>80920346831</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>50952464513</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>78923905050</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>107191452109</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>329156511929</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>25728400963</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>60373329172</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>16885597715</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
         <v>33914698940</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>86663119571</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>32560084706</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>47182700772</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>94471964493</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>71292301726</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>27296405196</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>30556998320</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>13066273457</v>
       </c>
     </row>
@@ -1750,669 +1930,729 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>6.955417</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2.357821</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3.505497</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.572577</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4.996071</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.146335</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.578172</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.319199</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.543814</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3.070927</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>6.933922</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1.673162</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.625977</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.173185</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7.327694</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.09547</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.22249</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.227236</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>7.59499</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>9.504101</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>7.033182</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1.824455</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.55415</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.158935</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6.503481</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.068892</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.208085</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.247947</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7.918704</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.966193000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>6.178713</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1.111455</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.021834</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.018288</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7.055773</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3.226304</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.018603</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.042004</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9.286632000000001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>11.318755</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>6.356682</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1.768287</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5.812329</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2.428273</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7.108405</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.333194</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.059604</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.608454</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7.215787</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4.380197</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>6.857598</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2.882234</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3.451202</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.627178</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.360081</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.901031</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.631314</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.408178</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6.166516</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5.10729</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>7.004797</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2.865944</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3.888686</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.671779</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4.650549</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.029931</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.721048</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.380096</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4.407691</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3.572031</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>5.640675</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2.797584</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.910969</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.700004</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5.680975</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.729225</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.683481</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.44196</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6.251388</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5.011801</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>6.687701</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1.806034</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.652759</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.186742</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7.430546</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.565186</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.207432</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.274763</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8.260536</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>11.667774</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>7.200164</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>4.213327</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4.306647</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.946796</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7.580638</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.508166</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.866736</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.557725</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5.658256</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>7.139837</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>7.606019</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>5.486693</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>12.312709</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4.047201</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>8.591122</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.335253</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.766732</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.758608</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>6.391001</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3.550613</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>7.249958</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4.05617</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5.172697</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2.116605</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7.265206</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.536819</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.997443</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.557034</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5.556215</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4.699128</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
         <v>7.227695</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>4.40656</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>6.109778</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.36342</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>7.232356</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.512529</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2.15061</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.594403</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5.368751</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.18309</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
         <v>8.268672</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.007537</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.01128</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5.917134</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>9.341388</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.011555</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.019934</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>10.226362</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>12.888951</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
         <v>10.115106</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>12.154479</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>18.608304</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>4.435986</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6.808279</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.439645</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.395379</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.384439</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5.053</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3.133285</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
         <v>7.650173</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>8.025047000000001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>11.159348</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>3.505613</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>7.307597</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.372076</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.77186</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.783476</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>5.039407</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3.55342</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
         <v>6.895768</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>6.043397</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>9.474945999999999</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>3.043169</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>6.511628</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.351566</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2.516195</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.685916</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6.060893</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3.838528</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
         <v>7.234025</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.007763</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1.011476</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4.937374</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9.316819000000001</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1.011738</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.018321</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>9.085575</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>11.350967</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
         <v>0.781343</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>3.628611</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>4.82273</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>6.458157</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.520914</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2.582599</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5.735868</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3.555228</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
         <v>7.799199</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.886859</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4.218605</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>8.615949000000001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.38846</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.939142</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.846421</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5.448541</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2.990918</v>
       </c>
     </row>
@@ -2423,669 +2663,729 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>16.555464</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>12.095574</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>41.37842</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>30.38684</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>25.460016</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>37.517509</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>42.214899</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>28.76939</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>45.271693</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>50.429862</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>17.844708</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>11.512406</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>47.07646</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>25.476757</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>22.416132</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>25.576579</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>23.383536</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20.823695</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>27.000741</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>32.784232</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>18.392501</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>11.374178</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>50.431478</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>26.258231</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>22.208455</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>24.568155</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>23.286456</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20.776567</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>25.84629</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>32.595038</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>30.747479</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>11.37903</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>26.598618</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>17.07913</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>22.815345</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>36.996166</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>14.121262</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>13.857991</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>27.34369</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>28.498092</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>14.709794</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>12.341316</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>36.252429</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>29.151238</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20.562732</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>27.480507</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>46.266294</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>46.742527</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>26.739609</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>67.338171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>17.116716</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>12.069395</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>53.488172</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>35.141852</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22.461481</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>29.122553</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>36.030024</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>33.817846</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>28.221144</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>49.886331</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>15.727658</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>12.546462</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>50.501663</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>35.349138</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>25.118971</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>28.883233</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>39.721811</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>29.505575</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>44.105941</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>42.784041</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>16.206388</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>12.068821</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>48.895405</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>33.747903</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>22.63356</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>26.06894</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>37.747913</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>34.727764</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>27.314166</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>52.005115</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>17.366193</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>11.410514</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>51.921747</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>26.961753</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>21.953979</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>23.974208</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>24.0657</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>21.713881</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>23.101968</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>31.193572</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>16.286495</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>12.08752</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>60.49848</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>41.683521</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>21.1493</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>21.851651</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>39.812575</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>37.589815</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>28.688326</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>53.703197</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>14.717229</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>12.558361</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>32.975159</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>28.802665</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>19.831558</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>31.064941</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>49.787875</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>53.358914</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>28.918463</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>70.218818</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>16.077566</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>12.236058</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>48.596806</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>36.201304</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>21.6072</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>23.858913</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>42.660738</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>39.290096</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>32.248852</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>54.574521</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
         <v>16.000604</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>12.357724</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>44.722552</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>35.04027</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>21.67073</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>24.674785</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>44.828316</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>41.420561</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>33.757737</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>56.032001</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
         <v>27.617329</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>25.560949</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>16.682755</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>22.273367</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>30.218541</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>13.514509</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>13.286913</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>26.000787</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>25.455991</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
         <v>14.940793</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>14.518362</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>27.674292</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>27.745682</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>21.220443</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>39.442781</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>56.135542</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>68.96717</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>38.183785</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>73.606385</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
         <v>15.770552</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>12.748338</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>37.238715</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>33.336643</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>20.8281</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>28.125488</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>48.790028</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>51.764943</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>31.105382</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>66.43055099999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
         <v>15.73922</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>12.408261</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>38.511785</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>33.115312</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>21.328654</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>27.289663</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>48.306968</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>48.510634</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>28.163614</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>65.02643</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
         <v>31.173379</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>25.560277</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>16.700683</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>22.766906</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>32.521691</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>13.530595</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>13.286719</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>29.115827</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>28.787452</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
         <v>131.022806</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>148.811873</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>25.915458</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>20.490911</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>38.045077</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>70.811682</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>37.962377</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>76.966269</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
         <v>15.628797</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>531.674746</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>30.593341</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>19.95172</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>31.284502</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>50.499896</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>55.694906</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>32.488935</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>68.336009</v>
       </c>
     </row>

--- a/excel/real_world_graph_profile.xlsx
+++ b/excel/real_world_graph_profile.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0A1238-A826-4FB9-B12F-A51A3E6D68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="690" yWindow="2115" windowWidth="27330" windowHeight="13080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="warp_execution_efficiency" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="gld_transactions_per_request" sheetId="3" r:id="rId3"/>
     <sheet name="gld_efficiency" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="32">
   <si>
     <t>Polak</t>
   </si>
@@ -108,16 +114,23 @@
   <si>
     <t>CF</t>
   </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,8 +138,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,17 +192,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +248,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,6 +282,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,9 +317,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,14 +493,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,564 +535,564 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>71.096935</v>
+        <v>71.096935000000002</v>
       </c>
       <c r="C2">
         <v>26.134328</v>
       </c>
       <c r="D2">
-        <v>80.182722</v>
+        <v>80.182721999999998</v>
       </c>
       <c r="E2">
-        <v>59.952513</v>
+        <v>59.952513000000003</v>
       </c>
       <c r="F2">
-        <v>92.91512</v>
+        <v>92.915120000000002</v>
       </c>
       <c r="G2">
-        <v>78.41149900000001</v>
+        <v>78.411499000000006</v>
       </c>
       <c r="H2">
-        <v>73.275246</v>
+        <v>73.275245999999996</v>
       </c>
       <c r="I2">
-        <v>68.583592</v>
+        <v>68.583591999999996</v>
       </c>
       <c r="J2">
-        <v>83.989968</v>
+        <v>83.989968000000005</v>
       </c>
       <c r="K2">
-        <v>75.082899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>75.082898999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>46.898265</v>
+        <v>46.898265000000002</v>
       </c>
       <c r="C3">
         <v>14.485649</v>
       </c>
       <c r="D3">
-        <v>73.50709500000001</v>
+        <v>73.507095000000007</v>
       </c>
       <c r="E3">
-        <v>51.584514</v>
+        <v>51.584513999999999</v>
       </c>
       <c r="F3">
-        <v>94.81455</v>
+        <v>94.814549999999997</v>
       </c>
       <c r="G3">
-        <v>74.95522200000001</v>
+        <v>74.955222000000006</v>
       </c>
       <c r="H3">
-        <v>70.197936</v>
+        <v>70.197935999999999</v>
       </c>
       <c r="I3">
-        <v>65.857313</v>
+        <v>65.857313000000005</v>
       </c>
       <c r="J3">
-        <v>68.781722</v>
+        <v>68.781722000000002</v>
       </c>
       <c r="K3">
-        <v>82.019347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>82.019346999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>53.673549</v>
+        <v>53.673549000000001</v>
       </c>
       <c r="C4">
         <v>13.520871</v>
       </c>
       <c r="D4">
-        <v>66.303084</v>
+        <v>66.303083999999998</v>
       </c>
       <c r="E4">
-        <v>43.323811</v>
+        <v>43.323810999999999</v>
       </c>
       <c r="F4">
-        <v>91.237931</v>
+        <v>91.237931000000003</v>
       </c>
       <c r="G4">
-        <v>72.857781</v>
+        <v>72.857781000000003</v>
       </c>
       <c r="H4">
-        <v>70.95126500000001</v>
+        <v>70.951265000000006</v>
       </c>
       <c r="I4">
-        <v>66.73074800000001</v>
+        <v>66.730748000000006</v>
       </c>
       <c r="J4">
-        <v>72.767033</v>
+        <v>72.767032999999998</v>
       </c>
       <c r="K4">
-        <v>82.045283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>82.045282999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>57.878614</v>
+        <v>57.878613999999999</v>
       </c>
       <c r="C5">
-        <v>29.69373</v>
+        <v>29.693729999999999</v>
       </c>
       <c r="D5">
-        <v>90.63879799999999</v>
+        <v>90.638797999999994</v>
       </c>
       <c r="E5">
-        <v>44.735988</v>
+        <v>44.735987999999999</v>
       </c>
       <c r="F5">
         <v>98.262</v>
       </c>
       <c r="G5">
-        <v>70.224537</v>
+        <v>70.224536999999998</v>
       </c>
       <c r="H5">
-        <v>74.993487</v>
+        <v>74.993487000000002</v>
       </c>
       <c r="I5">
-        <v>71.340739</v>
+        <v>71.340738999999999</v>
       </c>
       <c r="J5">
-        <v>57.552355</v>
+        <v>57.552354999999999</v>
       </c>
       <c r="K5">
-        <v>72.361197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>72.361197000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>36.128928</v>
+        <v>36.128928000000002</v>
       </c>
       <c r="C6">
-        <v>8.984707999999999</v>
+        <v>8.9847079999999995</v>
       </c>
       <c r="D6">
-        <v>90.80293399999999</v>
+        <v>90.802933999999993</v>
       </c>
       <c r="E6">
-        <v>48.647074</v>
+        <v>48.647074000000003</v>
       </c>
       <c r="F6">
-        <v>85.617887</v>
+        <v>85.617886999999996</v>
       </c>
       <c r="G6">
-        <v>86.284555</v>
+        <v>86.284554999999997</v>
       </c>
       <c r="H6">
-        <v>64.637004</v>
+        <v>64.637004000000005</v>
       </c>
       <c r="I6">
-        <v>66.668392</v>
+        <v>66.668391999999997</v>
       </c>
       <c r="J6">
-        <v>85.299578</v>
+        <v>85.299577999999997</v>
       </c>
       <c r="K6">
-        <v>92.103042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>92.103042000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>55.391418</v>
+        <v>55.391418000000002</v>
       </c>
       <c r="C7">
-        <v>19.475032</v>
+        <v>19.475031999999999</v>
       </c>
       <c r="D7">
-        <v>76.298435</v>
+        <v>76.298434999999998</v>
       </c>
       <c r="E7">
-        <v>51.553014</v>
+        <v>51.553013999999997</v>
       </c>
       <c r="F7">
-        <v>86.794785</v>
+        <v>86.794785000000005</v>
       </c>
       <c r="G7">
-        <v>79.643747</v>
+        <v>79.643747000000005</v>
       </c>
       <c r="H7">
         <v>68.736863</v>
       </c>
       <c r="I7">
-        <v>65.287798</v>
+        <v>65.287797999999995</v>
       </c>
       <c r="J7">
-        <v>78.943915</v>
+        <v>78.943915000000004</v>
       </c>
       <c r="K7">
-        <v>78.518494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>78.518494000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>75.952538</v>
+        <v>75.952538000000004</v>
       </c>
       <c r="C8">
-        <v>26.86503</v>
+        <v>26.865030000000001</v>
       </c>
       <c r="D8">
-        <v>75.135965</v>
+        <v>75.135964999999999</v>
       </c>
       <c r="E8">
-        <v>48.682663</v>
+        <v>48.682662999999998</v>
       </c>
       <c r="F8">
-        <v>87.229564</v>
+        <v>87.229563999999996</v>
       </c>
       <c r="G8">
-        <v>80.559758</v>
+        <v>80.559758000000002</v>
       </c>
       <c r="H8">
-        <v>70.116917</v>
+        <v>70.116917000000001</v>
       </c>
       <c r="I8">
-        <v>65.95926900000001</v>
+        <v>65.959269000000006</v>
       </c>
       <c r="J8">
-        <v>83.625508</v>
+        <v>83.625507999999996</v>
       </c>
       <c r="K8">
-        <v>70.634308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>70.634308000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>40.905612</v>
+        <v>40.905611999999998</v>
       </c>
       <c r="C9">
-        <v>15.332641</v>
+        <v>15.332641000000001</v>
       </c>
       <c r="D9">
-        <v>73.978112</v>
+        <v>73.978111999999996</v>
       </c>
       <c r="E9">
-        <v>47.215284</v>
+        <v>47.215283999999997</v>
       </c>
       <c r="F9">
-        <v>84.291011</v>
+        <v>84.291010999999997</v>
       </c>
       <c r="G9">
-        <v>81.58506</v>
+        <v>81.585059999999999</v>
       </c>
       <c r="H9">
-        <v>67.92412299999999</v>
+        <v>67.924122999999994</v>
       </c>
       <c r="I9">
-        <v>64.993788</v>
+        <v>64.993787999999995</v>
       </c>
       <c r="J9">
-        <v>78.673091</v>
+        <v>78.673090999999999</v>
       </c>
       <c r="K9">
-        <v>81.370875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>81.370874999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>48.081503</v>
+        <v>48.081502999999998</v>
       </c>
       <c r="C10">
         <v>13.682212</v>
       </c>
       <c r="D10">
-        <v>69.739875</v>
+        <v>69.739874999999998</v>
       </c>
       <c r="E10">
-        <v>36.061057</v>
+        <v>36.061056999999998</v>
       </c>
       <c r="F10">
-        <v>85.84499700000001</v>
+        <v>85.844997000000006</v>
       </c>
       <c r="G10">
-        <v>73.253607</v>
+        <v>73.253607000000002</v>
       </c>
       <c r="H10">
-        <v>71.03910500000001</v>
+        <v>71.039105000000006</v>
       </c>
       <c r="I10">
-        <v>67.744035</v>
+        <v>67.744034999999997</v>
       </c>
       <c r="J10">
-        <v>70.860857</v>
+        <v>70.860856999999996</v>
       </c>
       <c r="K10">
-        <v>83.427176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>83.427176000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>59.434924</v>
+        <v>59.434924000000002</v>
       </c>
       <c r="C11">
-        <v>25.504139</v>
+        <v>25.504138999999999</v>
       </c>
       <c r="D11">
-        <v>71.86747200000001</v>
+        <v>71.867472000000006</v>
       </c>
       <c r="E11">
-        <v>60.213108</v>
+        <v>60.213107999999998</v>
       </c>
       <c r="F11">
-        <v>85.61135299999999</v>
+        <v>85.611352999999994</v>
       </c>
       <c r="G11">
-        <v>87.219945</v>
+        <v>87.219944999999996</v>
       </c>
       <c r="H11">
-        <v>68.101017</v>
+        <v>68.101016999999999</v>
       </c>
       <c r="I11">
         <v>63.428348</v>
       </c>
       <c r="J11">
-        <v>84.33813499999999</v>
+        <v>84.338134999999994</v>
       </c>
       <c r="K11">
-        <v>89.82231400000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>89.822314000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>49.733634</v>
+        <v>49.733634000000002</v>
       </c>
       <c r="C12">
         <v>22.796253</v>
       </c>
       <c r="D12">
-        <v>80.424046</v>
+        <v>80.424046000000004</v>
       </c>
       <c r="E12">
-        <v>73.068952</v>
+        <v>73.068951999999996</v>
       </c>
       <c r="F12">
-        <v>82.037983</v>
+        <v>82.037982999999997</v>
       </c>
       <c r="G12">
-        <v>91.282737</v>
+        <v>91.282736999999997</v>
       </c>
       <c r="H12">
-        <v>61.381189</v>
+        <v>61.381188999999999</v>
       </c>
       <c r="I12">
-        <v>63.768987</v>
+        <v>63.768987000000003</v>
       </c>
       <c r="J12">
-        <v>90.731971</v>
+        <v>90.731971000000001</v>
       </c>
       <c r="K12">
-        <v>94.00542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>94.005420000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>55.778072</v>
+        <v>55.778072000000002</v>
       </c>
       <c r="C13">
         <v>22.637428</v>
       </c>
       <c r="D13">
-        <v>72.16645</v>
+        <v>72.166449999999998</v>
       </c>
       <c r="E13">
-        <v>57.152317</v>
+        <v>57.152316999999996</v>
       </c>
       <c r="F13">
-        <v>81.499467</v>
+        <v>81.499466999999996</v>
       </c>
       <c r="G13">
-        <v>85.713116</v>
+        <v>85.713115999999999</v>
       </c>
       <c r="H13">
-        <v>66.81540699999999</v>
+        <v>66.815406999999993</v>
       </c>
       <c r="I13">
-        <v>64.022541</v>
+        <v>64.022541000000004</v>
       </c>
       <c r="J13">
-        <v>85.49573700000001</v>
+        <v>85.495737000000005</v>
       </c>
       <c r="K13">
-        <v>87.242378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>87.242378000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>55.197016</v>
+        <v>55.197015999999998</v>
       </c>
       <c r="C14">
         <v>23.039116</v>
       </c>
       <c r="D14">
-        <v>72.72393599999999</v>
+        <v>72.723935999999995</v>
       </c>
       <c r="E14">
-        <v>59.988302</v>
+        <v>59.988301999999997</v>
       </c>
       <c r="F14">
-        <v>80.391963</v>
+        <v>80.391963000000004</v>
       </c>
       <c r="G14">
-        <v>86.497066</v>
+        <v>86.497066000000004</v>
       </c>
       <c r="H14">
-        <v>65.597256</v>
+        <v>65.597256000000002</v>
       </c>
       <c r="I14">
-        <v>63.957057</v>
+        <v>63.957056999999999</v>
       </c>
       <c r="J14">
-        <v>87.092212</v>
+        <v>87.092212000000004</v>
       </c>
       <c r="K14">
-        <v>87.95871099999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>87.958710999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>61.941067</v>
+        <v>61.941066999999997</v>
       </c>
       <c r="D15">
         <v>95.24512</v>
       </c>
       <c r="E15">
-        <v>45.054</v>
+        <v>45.054000000000002</v>
       </c>
       <c r="F15">
-        <v>98.540556</v>
+        <v>98.540555999999995</v>
       </c>
       <c r="G15">
-        <v>56.612868</v>
+        <v>56.612867999999999</v>
       </c>
       <c r="H15">
-        <v>77.911091</v>
+        <v>77.911090999999999</v>
       </c>
       <c r="I15">
-        <v>74.225747</v>
+        <v>74.225746999999998</v>
       </c>
       <c r="J15">
-        <v>60.086561</v>
+        <v>60.086561000000003</v>
       </c>
       <c r="K15">
-        <v>72.69129700000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>72.691297000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>65.01581299999999</v>
+        <v>65.015812999999994</v>
       </c>
       <c r="C16">
-        <v>29.849611</v>
+        <v>29.849610999999999</v>
       </c>
       <c r="D16">
-        <v>80.374375</v>
+        <v>80.374375000000001</v>
       </c>
       <c r="E16">
-        <v>86.69058099999999</v>
+        <v>86.690580999999995</v>
       </c>
       <c r="F16">
-        <v>82.157805</v>
+        <v>82.157804999999996</v>
       </c>
       <c r="G16">
-        <v>95.189345</v>
+        <v>95.189345000000003</v>
       </c>
       <c r="H16">
-        <v>65.424575</v>
+        <v>65.424575000000004</v>
       </c>
       <c r="I16">
         <v>62.712837</v>
       </c>
       <c r="J16">
-        <v>97.456936</v>
+        <v>97.456935999999999</v>
       </c>
       <c r="K16">
-        <v>91.931695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>91.931695000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>57.770987</v>
+        <v>57.770986999999998</v>
       </c>
       <c r="C17">
         <v>30.226775</v>
       </c>
       <c r="D17">
-        <v>75.56938100000001</v>
+        <v>75.569381000000007</v>
       </c>
       <c r="E17">
         <v>77.252032</v>
       </c>
       <c r="F17">
-        <v>86.69241700000001</v>
+        <v>86.692417000000006</v>
       </c>
       <c r="G17">
-        <v>91.383447</v>
+        <v>91.383447000000004</v>
       </c>
       <c r="H17">
-        <v>61.661477</v>
+        <v>61.661476999999998</v>
       </c>
       <c r="I17">
-        <v>61.783523</v>
+        <v>61.783523000000002</v>
       </c>
       <c r="J17">
         <v>93.565331</v>
       </c>
       <c r="K17">
-        <v>93.01155199999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>93.011551999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1067,34 +1100,34 @@
         <v>49.692605</v>
       </c>
       <c r="C18">
-        <v>23.934382</v>
+        <v>23.934381999999999</v>
       </c>
       <c r="D18">
-        <v>75.044445</v>
+        <v>75.044444999999996</v>
       </c>
       <c r="E18">
-        <v>70.863392</v>
+        <v>70.863392000000005</v>
       </c>
       <c r="F18">
-        <v>82.63546599999999</v>
+        <v>82.635465999999994</v>
       </c>
       <c r="G18">
-        <v>90.182204</v>
+        <v>90.182203999999999</v>
       </c>
       <c r="H18">
-        <v>62.831409</v>
+        <v>62.831409000000001</v>
       </c>
       <c r="I18">
-        <v>62.980988</v>
+        <v>62.980988000000004</v>
       </c>
       <c r="J18">
-        <v>88.843503</v>
+        <v>88.843502999999998</v>
       </c>
       <c r="K18">
-        <v>88.74283800000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>88.742838000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1102,108 +1135,112 @@
         <v>61.234133</v>
       </c>
       <c r="D19">
-        <v>95.108318</v>
+        <v>95.108317999999997</v>
       </c>
       <c r="E19">
-        <v>44.503538</v>
+        <v>44.503537999999999</v>
       </c>
       <c r="F19">
-        <v>98.545295</v>
+        <v>98.545294999999996</v>
       </c>
       <c r="G19">
         <v>53.872422</v>
       </c>
       <c r="H19">
-        <v>77.90059100000001</v>
+        <v>77.900591000000006</v>
       </c>
       <c r="I19">
-        <v>74.17545</v>
+        <v>74.175449999999998</v>
       </c>
       <c r="J19">
-        <v>59.585039</v>
+        <v>59.585039000000002</v>
       </c>
       <c r="K19">
-        <v>72.695447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>72.695447000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>40.991153</v>
+        <v>40.991152999999997</v>
       </c>
       <c r="D20">
-        <v>81.21608000000001</v>
+        <v>81.216080000000005</v>
       </c>
       <c r="E20">
-        <v>88.075011</v>
+        <v>88.075011000000003</v>
       </c>
       <c r="F20">
-        <v>73.837838</v>
+        <v>73.837838000000005</v>
       </c>
       <c r="G20">
-        <v>88.986169</v>
+        <v>88.986169000000004</v>
       </c>
       <c r="H20">
         <v>28.447416</v>
       </c>
       <c r="I20">
-        <v>58.028088</v>
+        <v>58.028087999999997</v>
       </c>
       <c r="J20">
         <v>97.125422</v>
       </c>
       <c r="K20">
-        <v>94.228649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>94.228649000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>59.085644</v>
+        <v>59.085644000000002</v>
       </c>
       <c r="D21">
-        <v>78.271619</v>
+        <v>78.271619000000001</v>
       </c>
       <c r="E21">
-        <v>81.097742</v>
+        <v>81.097741999999997</v>
       </c>
       <c r="F21">
-        <v>74.84712500000001</v>
+        <v>74.847125000000005</v>
       </c>
       <c r="G21">
-        <v>91.978328</v>
+        <v>91.978328000000005</v>
       </c>
       <c r="H21">
         <v>61.607253</v>
       </c>
       <c r="I21">
-        <v>62.954354</v>
+        <v>62.954354000000002</v>
       </c>
       <c r="J21">
-        <v>93.187765</v>
+        <v>93.187764999999999</v>
       </c>
       <c r="K21">
-        <v>94.30764000000001</v>
+        <v>94.307640000000006</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1307,7 @@
         <v>1767780</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1305,7 +1342,7 @@
         <v>363417</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1377,7 @@
         <v>746526</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1375,7 +1412,7 @@
         <v>344214</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +1447,7 @@
         <v>8156204</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1445,7 +1482,7 @@
         <v>5748057</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1480,7 +1517,7 @@
         <v>10288161</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1552,7 @@
         <v>11917277</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1550,7 +1587,7 @@
         <v>5202538</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1622,7 @@
         <v>19783750</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1620,7 +1657,7 @@
         <v>149114744</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1692,7 @@
         <v>53446776</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1690,7 +1727,7 @@
         <v>84605647</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1722,7 +1759,7 @@
         <v>6453355</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1794,7 @@
         <v>1866387963</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,7 +1829,7 @@
         <v>487375265</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1827,7 +1864,7 @@
         <v>539683293</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1859,7 +1896,7 @@
         <v>26136535</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1891,7 +1928,7 @@
         <v>16885597715</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1924,19 +1961,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,47 +2009,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.955417</v>
+        <v>6.9554169999999997</v>
       </c>
       <c r="C2">
-        <v>2.357821</v>
+        <v>2.3578209999999999</v>
       </c>
       <c r="D2">
-        <v>3.505497</v>
+        <v>3.5054970000000001</v>
       </c>
       <c r="E2">
-        <v>1.572577</v>
+        <v>1.5725769999999999</v>
       </c>
       <c r="F2">
-        <v>4.996071</v>
+        <v>4.9960709999999997</v>
       </c>
       <c r="G2">
-        <v>2.146335</v>
+        <v>2.1463350000000001</v>
       </c>
       <c r="H2">
-        <v>1.578172</v>
+        <v>1.5781719999999999</v>
       </c>
       <c r="I2">
         <v>1.319199</v>
       </c>
       <c r="J2">
-        <v>4.543814</v>
+        <v>4.5438140000000002</v>
       </c>
       <c r="K2">
-        <v>3.070927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>3.0709270000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6.933922</v>
+        <v>6.9339219999999999</v>
       </c>
       <c r="C3">
         <v>1.673162</v>
@@ -2017,28 +2058,28 @@
         <v>1.625977</v>
       </c>
       <c r="E3">
-        <v>1.173185</v>
+        <v>1.1731849999999999</v>
       </c>
       <c r="F3">
-        <v>7.327694</v>
+        <v>7.3276940000000002</v>
       </c>
       <c r="G3">
-        <v>2.09547</v>
+        <v>2.0954700000000002</v>
       </c>
       <c r="H3">
-        <v>1.22249</v>
+        <v>1.2224900000000001</v>
       </c>
       <c r="I3">
         <v>1.227236</v>
       </c>
       <c r="J3">
-        <v>7.59499</v>
+        <v>7.5949900000000001</v>
       </c>
       <c r="K3">
-        <v>9.504101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>9.5041010000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2046,191 +2087,191 @@
         <v>7.033182</v>
       </c>
       <c r="C4">
-        <v>1.824455</v>
+        <v>1.8244549999999999</v>
       </c>
       <c r="D4">
-        <v>1.55415</v>
+        <v>1.5541499999999999</v>
       </c>
       <c r="E4">
         <v>1.158935</v>
       </c>
       <c r="F4">
-        <v>6.503481</v>
+        <v>6.5034809999999998</v>
       </c>
       <c r="G4">
         <v>2.068892</v>
       </c>
       <c r="H4">
-        <v>1.208085</v>
+        <v>1.2080850000000001</v>
       </c>
       <c r="I4">
-        <v>1.247947</v>
+        <v>1.2479469999999999</v>
       </c>
       <c r="J4">
         <v>7.918704</v>
       </c>
       <c r="K4">
-        <v>9.966193000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>9.9661930000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.178713</v>
+        <v>6.1787130000000001</v>
       </c>
       <c r="C5">
-        <v>1.111455</v>
+        <v>1.1114550000000001</v>
       </c>
       <c r="D5">
-        <v>1.021834</v>
+        <v>1.0218339999999999</v>
       </c>
       <c r="E5">
-        <v>1.018288</v>
+        <v>1.0182880000000001</v>
       </c>
       <c r="F5">
-        <v>7.055773</v>
+        <v>7.0557730000000003</v>
       </c>
       <c r="G5">
-        <v>3.226304</v>
+        <v>3.2263039999999998</v>
       </c>
       <c r="H5">
-        <v>1.018603</v>
+        <v>1.0186029999999999</v>
       </c>
       <c r="I5">
-        <v>1.042004</v>
+        <v>1.0420039999999999</v>
       </c>
       <c r="J5">
-        <v>9.286632000000001</v>
+        <v>9.2866320000000009</v>
       </c>
       <c r="K5">
-        <v>11.318755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>11.318754999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.356682</v>
+        <v>6.3566820000000002</v>
       </c>
       <c r="C6">
-        <v>1.768287</v>
+        <v>1.7682869999999999</v>
       </c>
       <c r="D6">
-        <v>5.812329</v>
+        <v>5.8123290000000001</v>
       </c>
       <c r="E6">
-        <v>2.428273</v>
+        <v>2.4282729999999999</v>
       </c>
       <c r="F6">
-        <v>7.108405</v>
+        <v>7.1084050000000003</v>
       </c>
       <c r="G6">
         <v>1.333194</v>
       </c>
       <c r="H6">
-        <v>2.059604</v>
+        <v>2.0596040000000002</v>
       </c>
       <c r="I6">
-        <v>1.608454</v>
+        <v>1.6084540000000001</v>
       </c>
       <c r="J6">
-        <v>7.215787</v>
+        <v>7.2157869999999997</v>
       </c>
       <c r="K6">
-        <v>4.380197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>4.3801969999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6.857598</v>
+        <v>6.8575980000000003</v>
       </c>
       <c r="C7">
         <v>2.882234</v>
       </c>
       <c r="D7">
-        <v>3.451202</v>
+        <v>3.4512019999999999</v>
       </c>
       <c r="E7">
         <v>1.627178</v>
       </c>
       <c r="F7">
-        <v>6.360081</v>
+        <v>6.3600810000000001</v>
       </c>
       <c r="G7">
-        <v>1.901031</v>
+        <v>1.9010309999999999</v>
       </c>
       <c r="H7">
-        <v>1.631314</v>
+        <v>1.6313139999999999</v>
       </c>
       <c r="I7">
-        <v>1.408178</v>
+        <v>1.4081779999999999</v>
       </c>
       <c r="J7">
-        <v>6.166516</v>
+        <v>6.1665159999999997</v>
       </c>
       <c r="K7">
-        <v>5.10729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>5.1072899999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>7.004797</v>
+        <v>7.0047969999999999</v>
       </c>
       <c r="C8">
-        <v>2.865944</v>
+        <v>2.8659439999999998</v>
       </c>
       <c r="D8">
-        <v>3.888686</v>
+        <v>3.8886859999999999</v>
       </c>
       <c r="E8">
-        <v>1.671779</v>
+        <v>1.6717789999999999</v>
       </c>
       <c r="F8">
-        <v>4.650549</v>
+        <v>4.6505489999999998</v>
       </c>
       <c r="G8">
-        <v>2.029931</v>
+        <v>2.0299309999999999</v>
       </c>
       <c r="H8">
-        <v>1.721048</v>
+        <v>1.7210479999999999</v>
       </c>
       <c r="I8">
         <v>1.380096</v>
       </c>
       <c r="J8">
-        <v>4.407691</v>
+        <v>4.4076909999999998</v>
       </c>
       <c r="K8">
         <v>3.572031</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5.640675</v>
+        <v>5.6406749999999999</v>
       </c>
       <c r="C9">
-        <v>2.797584</v>
+        <v>2.7975840000000001</v>
       </c>
       <c r="D9">
-        <v>3.910969</v>
+        <v>3.9109690000000001</v>
       </c>
       <c r="E9">
-        <v>1.700004</v>
+        <v>1.7000040000000001</v>
       </c>
       <c r="F9">
-        <v>5.680975</v>
+        <v>5.6809750000000001</v>
       </c>
       <c r="G9">
         <v>1.729225</v>
@@ -2239,51 +2280,51 @@
         <v>1.683481</v>
       </c>
       <c r="I9">
-        <v>1.44196</v>
+        <v>1.4419599999999999</v>
       </c>
       <c r="J9">
-        <v>6.251388</v>
+        <v>6.2513880000000004</v>
       </c>
       <c r="K9">
-        <v>5.011801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>5.0118010000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.687701</v>
+        <v>6.6877009999999997</v>
       </c>
       <c r="C10">
-        <v>1.806034</v>
+        <v>1.8060339999999999</v>
       </c>
       <c r="D10">
-        <v>1.652759</v>
+        <v>1.6527590000000001</v>
       </c>
       <c r="E10">
         <v>1.186742</v>
       </c>
       <c r="F10">
-        <v>7.430546</v>
+        <v>7.4305459999999997</v>
       </c>
       <c r="G10">
-        <v>2.565186</v>
+        <v>2.5651860000000002</v>
       </c>
       <c r="H10">
-        <v>1.207432</v>
+        <v>1.2074320000000001</v>
       </c>
       <c r="I10">
-        <v>1.274763</v>
+        <v>1.2747630000000001</v>
       </c>
       <c r="J10">
-        <v>8.260536</v>
+        <v>8.2605360000000001</v>
       </c>
       <c r="K10">
         <v>11.667774</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2291,19 +2332,19 @@
         <v>7.200164</v>
       </c>
       <c r="C11">
-        <v>4.213327</v>
+        <v>4.2133269999999996</v>
       </c>
       <c r="D11">
-        <v>4.306647</v>
+        <v>4.3066469999999999</v>
       </c>
       <c r="E11">
         <v>1.946796</v>
       </c>
       <c r="F11">
-        <v>7.580638</v>
+        <v>7.5806380000000004</v>
       </c>
       <c r="G11">
-        <v>1.508166</v>
+        <v>1.5081659999999999</v>
       </c>
       <c r="H11">
         <v>1.866736</v>
@@ -2312,141 +2353,141 @@
         <v>1.557725</v>
       </c>
       <c r="J11">
-        <v>5.658256</v>
+        <v>5.6582559999999997</v>
       </c>
       <c r="K11">
         <v>7.139837</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7.606019</v>
+        <v>7.6060189999999999</v>
       </c>
       <c r="C12">
-        <v>5.486693</v>
+        <v>5.4866929999999998</v>
       </c>
       <c r="D12">
         <v>12.312709</v>
       </c>
       <c r="E12">
-        <v>4.047201</v>
+        <v>4.0472010000000003</v>
       </c>
       <c r="F12">
-        <v>8.591122</v>
+        <v>8.5911220000000004</v>
       </c>
       <c r="G12">
         <v>1.335253</v>
       </c>
       <c r="H12">
-        <v>2.766732</v>
+        <v>2.7667320000000002</v>
       </c>
       <c r="I12">
-        <v>1.758608</v>
+        <v>1.7586079999999999</v>
       </c>
       <c r="J12">
-        <v>6.391001</v>
+        <v>6.3910010000000002</v>
       </c>
       <c r="K12">
-        <v>3.550613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>3.5506129999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7.249958</v>
+        <v>7.2499580000000003</v>
       </c>
       <c r="C13">
-        <v>4.05617</v>
+        <v>4.0561699999999998</v>
       </c>
       <c r="D13">
-        <v>5.172697</v>
+        <v>5.1726970000000003</v>
       </c>
       <c r="E13">
-        <v>2.116605</v>
+        <v>2.1166049999999998</v>
       </c>
       <c r="F13">
-        <v>7.265206</v>
+        <v>7.2652060000000001</v>
       </c>
       <c r="G13">
-        <v>1.536819</v>
+        <v>1.5368189999999999</v>
       </c>
       <c r="H13">
-        <v>1.997443</v>
+        <v>1.9974430000000001</v>
       </c>
       <c r="I13">
         <v>1.557034</v>
       </c>
       <c r="J13">
-        <v>5.556215</v>
+        <v>5.5562149999999999</v>
       </c>
       <c r="K13">
         <v>4.699128</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>7.227695</v>
+        <v>7.2276949999999998</v>
       </c>
       <c r="C14">
-        <v>4.40656</v>
+        <v>4.4065599999999998</v>
       </c>
       <c r="D14">
-        <v>6.109778</v>
+        <v>6.1097780000000004</v>
       </c>
       <c r="E14">
-        <v>2.36342</v>
+        <v>2.3634200000000001</v>
       </c>
       <c r="F14">
-        <v>7.232356</v>
+        <v>7.2323560000000002</v>
       </c>
       <c r="G14">
         <v>1.512529</v>
       </c>
       <c r="H14">
-        <v>2.15061</v>
+        <v>2.1506099999999999</v>
       </c>
       <c r="I14">
         <v>1.594403</v>
       </c>
       <c r="J14">
-        <v>5.368751</v>
+        <v>5.3687509999999996</v>
       </c>
       <c r="K14">
         <v>4.18309</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>8.268672</v>
+        <v>8.2686720000000005</v>
       </c>
       <c r="D15">
-        <v>1.007537</v>
+        <v>1.0075369999999999</v>
       </c>
       <c r="E15">
         <v>1.01128</v>
       </c>
       <c r="F15">
-        <v>5.917134</v>
+        <v>5.9171339999999999</v>
       </c>
       <c r="G15">
-        <v>9.341388</v>
+        <v>9.3413880000000002</v>
       </c>
       <c r="H15">
         <v>1.011555</v>
       </c>
       <c r="I15">
-        <v>1.019934</v>
+        <v>1.0199339999999999</v>
       </c>
       <c r="J15">
         <v>10.226362</v>
@@ -2455,12 +2496,12 @@
         <v>12.888951</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>10.115106</v>
+        <v>10.115106000000001</v>
       </c>
       <c r="C16">
         <v>12.154479</v>
@@ -2469,77 +2510,77 @@
         <v>18.608304</v>
       </c>
       <c r="E16">
-        <v>4.435986</v>
+        <v>4.4359859999999998</v>
       </c>
       <c r="F16">
-        <v>6.808279</v>
+        <v>6.8082789999999997</v>
       </c>
       <c r="G16">
-        <v>1.439645</v>
+        <v>1.4396450000000001</v>
       </c>
       <c r="H16">
-        <v>3.395379</v>
+        <v>3.3953790000000001</v>
       </c>
       <c r="I16">
         <v>2.384439</v>
       </c>
       <c r="J16">
-        <v>5.053</v>
+        <v>5.0529999999999999</v>
       </c>
       <c r="K16">
-        <v>3.133285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>3.1332849999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>7.650173</v>
+        <v>7.6501729999999997</v>
       </c>
       <c r="C17">
-        <v>8.025047000000001</v>
+        <v>8.0250470000000007</v>
       </c>
       <c r="D17">
         <v>11.159348</v>
       </c>
       <c r="E17">
-        <v>3.505613</v>
+        <v>3.5056129999999999</v>
       </c>
       <c r="F17">
-        <v>7.307597</v>
+        <v>7.3075970000000003</v>
       </c>
       <c r="G17">
-        <v>1.372076</v>
+        <v>1.3720760000000001</v>
       </c>
       <c r="H17">
-        <v>2.77186</v>
+        <v>2.7718600000000002</v>
       </c>
       <c r="I17">
-        <v>1.783476</v>
+        <v>1.7834760000000001</v>
       </c>
       <c r="J17">
-        <v>5.039407</v>
+        <v>5.0394069999999997</v>
       </c>
       <c r="K17">
         <v>3.55342</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6.895768</v>
+        <v>6.8957680000000003</v>
       </c>
       <c r="C18">
-        <v>6.043397</v>
+        <v>6.0433969999999997</v>
       </c>
       <c r="D18">
-        <v>9.474945999999999</v>
+        <v>9.4749459999999992</v>
       </c>
       <c r="E18">
-        <v>3.043169</v>
+        <v>3.0431689999999998</v>
       </c>
       <c r="F18">
         <v>6.511628</v>
@@ -2548,24 +2589,24 @@
         <v>1.351566</v>
       </c>
       <c r="H18">
-        <v>2.516195</v>
+        <v>2.5161950000000002</v>
       </c>
       <c r="I18">
         <v>1.685916</v>
       </c>
       <c r="J18">
-        <v>6.060893</v>
+        <v>6.0608930000000001</v>
       </c>
       <c r="K18">
-        <v>3.838528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>3.8385280000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>7.234025</v>
+        <v>7.2340249999999999</v>
       </c>
       <c r="D19">
         <v>1.007763</v>
@@ -2574,10 +2615,10 @@
         <v>1.011476</v>
       </c>
       <c r="F19">
-        <v>4.937374</v>
+        <v>4.9373740000000002</v>
       </c>
       <c r="G19">
-        <v>9.316819000000001</v>
+        <v>9.3168190000000006</v>
       </c>
       <c r="H19">
         <v>1.011738</v>
@@ -2586,90 +2627,96 @@
         <v>1.018321</v>
       </c>
       <c r="J19">
-        <v>9.085575</v>
+        <v>9.0855750000000004</v>
       </c>
       <c r="K19">
-        <v>11.350967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>11.350967000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.781343</v>
+        <v>0.78134300000000001</v>
       </c>
       <c r="D20">
-        <v>3.628611</v>
+        <v>3.6286109999999998</v>
       </c>
       <c r="E20">
         <v>4.82273</v>
       </c>
       <c r="F20">
-        <v>6.458157</v>
+        <v>6.4581569999999999</v>
       </c>
       <c r="G20">
-        <v>1.520914</v>
+        <v>1.5209140000000001</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.582599</v>
+        <v>2.5825990000000001</v>
       </c>
       <c r="J20">
         <v>5.735868</v>
       </c>
       <c r="K20">
-        <v>3.555228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>3.5552280000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>7.799199</v>
+        <v>7.7991989999999998</v>
       </c>
       <c r="D21">
-        <v>0.886859</v>
+        <v>0.88685899999999995</v>
       </c>
       <c r="E21">
-        <v>4.218605</v>
+        <v>4.2186050000000002</v>
       </c>
       <c r="F21">
-        <v>8.615949000000001</v>
+        <v>8.6159490000000005</v>
       </c>
       <c r="G21">
         <v>1.38846</v>
       </c>
       <c r="H21">
-        <v>2.939142</v>
+        <v>2.9391419999999999</v>
       </c>
       <c r="I21">
-        <v>1.846421</v>
+        <v>1.8464210000000001</v>
       </c>
       <c r="J21">
-        <v>5.448541</v>
+        <v>5.4485409999999996</v>
       </c>
       <c r="K21">
-        <v>2.990918</v>
+        <v>2.9909180000000002</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2701,100 +2748,100 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>16.555464</v>
+        <v>16.555464000000001</v>
       </c>
       <c r="C2">
-        <v>12.095574</v>
+        <v>12.095573999999999</v>
       </c>
       <c r="D2">
-        <v>41.37842</v>
+        <v>41.378419999999998</v>
       </c>
       <c r="E2">
-        <v>30.38684</v>
+        <v>30.386839999999999</v>
       </c>
       <c r="F2">
         <v>25.460016</v>
       </c>
       <c r="G2">
-        <v>37.517509</v>
+        <v>37.517508999999997</v>
       </c>
       <c r="H2">
-        <v>42.214899</v>
+        <v>42.214899000000003</v>
       </c>
       <c r="I2">
-        <v>28.76939</v>
+        <v>28.769390000000001</v>
       </c>
       <c r="J2">
-        <v>45.271693</v>
+        <v>45.271692999999999</v>
       </c>
       <c r="K2">
         <v>50.429862</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>17.844708</v>
+        <v>17.844708000000001</v>
       </c>
       <c r="C3">
         <v>11.512406</v>
       </c>
       <c r="D3">
-        <v>47.07646</v>
+        <v>47.076459999999997</v>
       </c>
       <c r="E3">
-        <v>25.476757</v>
+        <v>25.476756999999999</v>
       </c>
       <c r="F3">
-        <v>22.416132</v>
+        <v>22.416132000000001</v>
       </c>
       <c r="G3">
-        <v>25.576579</v>
+        <v>25.576578999999999</v>
       </c>
       <c r="H3">
-        <v>23.383536</v>
+        <v>23.383535999999999</v>
       </c>
       <c r="I3">
-        <v>20.823695</v>
+        <v>20.823695000000001</v>
       </c>
       <c r="J3">
-        <v>27.000741</v>
+        <v>27.000741000000001</v>
       </c>
       <c r="K3">
-        <v>32.784232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>32.784232000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>18.392501</v>
+        <v>18.392500999999999</v>
       </c>
       <c r="C4">
-        <v>11.374178</v>
+        <v>11.374178000000001</v>
       </c>
       <c r="D4">
-        <v>50.431478</v>
+        <v>50.431477999999998</v>
       </c>
       <c r="E4">
-        <v>26.258231</v>
+        <v>26.258230999999999</v>
       </c>
       <c r="F4">
-        <v>22.208455</v>
+        <v>22.208455000000001</v>
       </c>
       <c r="G4">
-        <v>24.568155</v>
+        <v>24.568155000000001</v>
       </c>
       <c r="H4">
-        <v>23.286456</v>
+        <v>23.286456000000001</v>
       </c>
       <c r="I4">
         <v>20.776567</v>
@@ -2803,30 +2850,30 @@
         <v>25.84629</v>
       </c>
       <c r="K4">
-        <v>32.595038</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>32.595038000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>30.747479</v>
+        <v>30.747478999999998</v>
       </c>
       <c r="C5">
         <v>11.37903</v>
       </c>
       <c r="D5">
-        <v>26.598618</v>
+        <v>26.598617999999998</v>
       </c>
       <c r="E5">
-        <v>17.07913</v>
+        <v>17.079129999999999</v>
       </c>
       <c r="F5">
-        <v>22.815345</v>
+        <v>22.815345000000001</v>
       </c>
       <c r="G5">
-        <v>36.996166</v>
+        <v>36.996166000000002</v>
       </c>
       <c r="H5">
         <v>14.121262</v>
@@ -2835,13 +2882,13 @@
         <v>13.857991</v>
       </c>
       <c r="J5">
-        <v>27.34369</v>
+        <v>27.343689999999999</v>
       </c>
       <c r="K5">
         <v>28.498092</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2849,34 +2896,34 @@
         <v>14.709794</v>
       </c>
       <c r="C6">
-        <v>12.341316</v>
+        <v>12.341316000000001</v>
       </c>
       <c r="D6">
-        <v>36.252429</v>
+        <v>36.252428999999999</v>
       </c>
       <c r="E6">
-        <v>29.151238</v>
+        <v>29.151237999999999</v>
       </c>
       <c r="F6">
         <v>20.562732</v>
       </c>
       <c r="G6">
-        <v>27.480507</v>
+        <v>27.480506999999999</v>
       </c>
       <c r="H6">
-        <v>46.266294</v>
+        <v>46.266294000000002</v>
       </c>
       <c r="I6">
-        <v>46.742527</v>
+        <v>46.742527000000003</v>
       </c>
       <c r="J6">
-        <v>26.739609</v>
+        <v>26.739609000000002</v>
       </c>
       <c r="K6">
-        <v>67.338171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>67.338171000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2887,31 +2934,31 @@
         <v>12.069395</v>
       </c>
       <c r="D7">
-        <v>53.488172</v>
+        <v>53.488171999999999</v>
       </c>
       <c r="E7">
         <v>35.141852</v>
       </c>
       <c r="F7">
-        <v>22.461481</v>
+        <v>22.461480999999999</v>
       </c>
       <c r="G7">
         <v>29.122553</v>
       </c>
       <c r="H7">
-        <v>36.030024</v>
+        <v>36.030023999999997</v>
       </c>
       <c r="I7">
-        <v>33.817846</v>
+        <v>33.817846000000003</v>
       </c>
       <c r="J7">
-        <v>28.221144</v>
+        <v>28.221143999999999</v>
       </c>
       <c r="K7">
-        <v>49.886331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>49.886330999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2922,31 +2969,31 @@
         <v>12.546462</v>
       </c>
       <c r="D8">
-        <v>50.501663</v>
+        <v>50.501663000000001</v>
       </c>
       <c r="E8">
-        <v>35.349138</v>
+        <v>35.349138000000004</v>
       </c>
       <c r="F8">
-        <v>25.118971</v>
+        <v>25.118970999999998</v>
       </c>
       <c r="G8">
-        <v>28.883233</v>
+        <v>28.883233000000001</v>
       </c>
       <c r="H8">
-        <v>39.721811</v>
+        <v>39.721811000000002</v>
       </c>
       <c r="I8">
         <v>29.505575</v>
       </c>
       <c r="J8">
-        <v>44.105941</v>
+        <v>44.105941000000001</v>
       </c>
       <c r="K8">
-        <v>42.784041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>42.784041000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2957,80 +3004,80 @@
         <v>12.068821</v>
       </c>
       <c r="D9">
-        <v>48.895405</v>
+        <v>48.895404999999997</v>
       </c>
       <c r="E9">
-        <v>33.747903</v>
+        <v>33.747903000000001</v>
       </c>
       <c r="F9">
-        <v>22.63356</v>
+        <v>22.633559999999999</v>
       </c>
       <c r="G9">
-        <v>26.06894</v>
+        <v>26.068940000000001</v>
       </c>
       <c r="H9">
-        <v>37.747913</v>
+        <v>37.747912999999997</v>
       </c>
       <c r="I9">
-        <v>34.727764</v>
+        <v>34.727764000000001</v>
       </c>
       <c r="J9">
         <v>27.314166</v>
       </c>
       <c r="K9">
-        <v>52.005115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>52.005115000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>17.366193</v>
+        <v>17.366192999999999</v>
       </c>
       <c r="C10">
-        <v>11.410514</v>
+        <v>11.410513999999999</v>
       </c>
       <c r="D10">
-        <v>51.921747</v>
+        <v>51.921747000000003</v>
       </c>
       <c r="E10">
-        <v>26.961753</v>
+        <v>26.961753000000002</v>
       </c>
       <c r="F10">
         <v>21.953979</v>
       </c>
       <c r="G10">
-        <v>23.974208</v>
+        <v>23.974208000000001</v>
       </c>
       <c r="H10">
         <v>24.0657</v>
       </c>
       <c r="I10">
-        <v>21.713881</v>
+        <v>21.713881000000001</v>
       </c>
       <c r="J10">
-        <v>23.101968</v>
+        <v>23.101967999999999</v>
       </c>
       <c r="K10">
         <v>31.193572</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>16.286495</v>
+        <v>16.286494999999999</v>
       </c>
       <c r="C11">
         <v>12.08752</v>
       </c>
       <c r="D11">
-        <v>60.49848</v>
+        <v>60.498480000000001</v>
       </c>
       <c r="E11">
-        <v>41.683521</v>
+        <v>41.683520999999999</v>
       </c>
       <c r="F11">
         <v>21.1493</v>
@@ -3039,19 +3086,19 @@
         <v>21.851651</v>
       </c>
       <c r="H11">
-        <v>39.812575</v>
+        <v>39.812575000000002</v>
       </c>
       <c r="I11">
-        <v>37.589815</v>
+        <v>37.589815000000002</v>
       </c>
       <c r="J11">
         <v>28.688326</v>
       </c>
       <c r="K11">
-        <v>53.703197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>53.703197000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3062,74 +3109,74 @@
         <v>12.558361</v>
       </c>
       <c r="D12">
-        <v>32.975159</v>
+        <v>32.975158999999998</v>
       </c>
       <c r="E12">
-        <v>28.802665</v>
+        <v>28.802665000000001</v>
       </c>
       <c r="F12">
-        <v>19.831558</v>
+        <v>19.831558000000001</v>
       </c>
       <c r="G12">
-        <v>31.064941</v>
+        <v>31.064941000000001</v>
       </c>
       <c r="H12">
         <v>49.787875</v>
       </c>
       <c r="I12">
-        <v>53.358914</v>
+        <v>53.358913999999999</v>
       </c>
       <c r="J12">
-        <v>28.918463</v>
+        <v>28.918462999999999</v>
       </c>
       <c r="K12">
-        <v>70.218818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>70.218817999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>16.077566</v>
+        <v>16.077566000000001</v>
       </c>
       <c r="C13">
         <v>12.236058</v>
       </c>
       <c r="D13">
-        <v>48.596806</v>
+        <v>48.596806000000001</v>
       </c>
       <c r="E13">
         <v>36.201304</v>
       </c>
       <c r="F13">
-        <v>21.6072</v>
+        <v>21.607199999999999</v>
       </c>
       <c r="G13">
-        <v>23.858913</v>
+        <v>23.858913000000001</v>
       </c>
       <c r="H13">
-        <v>42.660738</v>
+        <v>42.660738000000002</v>
       </c>
       <c r="I13">
-        <v>39.290096</v>
+        <v>39.290095999999998</v>
       </c>
       <c r="J13">
-        <v>32.248852</v>
+        <v>32.248851999999999</v>
       </c>
       <c r="K13">
-        <v>54.574521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>54.574520999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>16.000604</v>
+        <v>16.000603999999999</v>
       </c>
       <c r="C14">
-        <v>12.357724</v>
+        <v>12.357723999999999</v>
       </c>
       <c r="D14">
         <v>44.722552</v>
@@ -3138,33 +3185,33 @@
         <v>35.04027</v>
       </c>
       <c r="F14">
-        <v>21.67073</v>
+        <v>21.670729999999999</v>
       </c>
       <c r="G14">
         <v>24.674785</v>
       </c>
       <c r="H14">
-        <v>44.828316</v>
+        <v>44.828316000000001</v>
       </c>
       <c r="I14">
-        <v>41.420561</v>
+        <v>41.420560999999999</v>
       </c>
       <c r="J14">
-        <v>33.757737</v>
+        <v>33.757736999999999</v>
       </c>
       <c r="K14">
-        <v>56.032001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>56.032001000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>27.617329</v>
+        <v>27.617329000000002</v>
       </c>
       <c r="D15">
-        <v>25.560949</v>
+        <v>25.560949000000001</v>
       </c>
       <c r="E15">
         <v>16.682755</v>
@@ -3173,7 +3220,7 @@
         <v>22.273367</v>
       </c>
       <c r="G15">
-        <v>30.218541</v>
+        <v>30.218540999999998</v>
       </c>
       <c r="H15">
         <v>13.514509</v>
@@ -3182,48 +3229,48 @@
         <v>13.286913</v>
       </c>
       <c r="J15">
-        <v>26.000787</v>
+        <v>26.000786999999999</v>
       </c>
       <c r="K15">
-        <v>25.455991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>25.455991000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>14.940793</v>
+        <v>14.940792999999999</v>
       </c>
       <c r="C16">
         <v>14.518362</v>
       </c>
       <c r="D16">
-        <v>27.674292</v>
+        <v>27.674292000000001</v>
       </c>
       <c r="E16">
-        <v>27.745682</v>
+        <v>27.745681999999999</v>
       </c>
       <c r="F16">
         <v>21.220443</v>
       </c>
       <c r="G16">
-        <v>39.442781</v>
+        <v>39.442780999999997</v>
       </c>
       <c r="H16">
-        <v>56.135542</v>
+        <v>56.135542000000001</v>
       </c>
       <c r="I16">
-        <v>68.96717</v>
+        <v>68.967169999999996</v>
       </c>
       <c r="J16">
         <v>38.183785</v>
       </c>
       <c r="K16">
-        <v>73.606385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>73.606385000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3234,31 +3281,31 @@
         <v>12.748338</v>
       </c>
       <c r="D17">
-        <v>37.238715</v>
+        <v>37.238714999999999</v>
       </c>
       <c r="E17">
-        <v>33.336643</v>
+        <v>33.336643000000002</v>
       </c>
       <c r="F17">
-        <v>20.8281</v>
+        <v>20.828099999999999</v>
       </c>
       <c r="G17">
-        <v>28.125488</v>
+        <v>28.125488000000001</v>
       </c>
       <c r="H17">
         <v>48.790028</v>
       </c>
       <c r="I17">
-        <v>51.764943</v>
+        <v>51.764943000000002</v>
       </c>
       <c r="J17">
-        <v>31.105382</v>
+        <v>31.105381999999999</v>
       </c>
       <c r="K17">
-        <v>66.43055099999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>66.430550999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -3269,48 +3316,48 @@
         <v>12.408261</v>
       </c>
       <c r="D18">
-        <v>38.511785</v>
+        <v>38.511785000000003</v>
       </c>
       <c r="E18">
-        <v>33.115312</v>
+        <v>33.115312000000003</v>
       </c>
       <c r="F18">
         <v>21.328654</v>
       </c>
       <c r="G18">
-        <v>27.289663</v>
+        <v>27.289663000000001</v>
       </c>
       <c r="H18">
-        <v>48.306968</v>
+        <v>48.306967999999998</v>
       </c>
       <c r="I18">
-        <v>48.510634</v>
+        <v>48.510634000000003</v>
       </c>
       <c r="J18">
-        <v>28.163614</v>
+        <v>28.163613999999999</v>
       </c>
       <c r="K18">
-        <v>65.02643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>65.026430000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>31.173379</v>
+        <v>31.173379000000001</v>
       </c>
       <c r="D19">
-        <v>25.560277</v>
+        <v>25.560276999999999</v>
       </c>
       <c r="E19">
-        <v>16.700683</v>
+        <v>16.700683000000001</v>
       </c>
       <c r="F19">
-        <v>22.766906</v>
+        <v>22.766905999999999</v>
       </c>
       <c r="G19">
-        <v>32.521691</v>
+        <v>32.521690999999997</v>
       </c>
       <c r="H19">
         <v>13.530595</v>
@@ -3319,13 +3366,13 @@
         <v>13.286719</v>
       </c>
       <c r="J19">
-        <v>29.115827</v>
+        <v>29.115826999999999</v>
       </c>
       <c r="K19">
-        <v>28.787452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>28.787451999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -3333,31 +3380,31 @@
         <v>131.022806</v>
       </c>
       <c r="D20">
-        <v>148.811873</v>
+        <v>148.81187299999999</v>
       </c>
       <c r="E20">
-        <v>25.915458</v>
+        <v>25.915458000000001</v>
       </c>
       <c r="F20">
-        <v>20.490911</v>
+        <v>20.490911000000001</v>
       </c>
       <c r="G20">
-        <v>38.045077</v>
+        <v>38.045076999999999</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>70.811682</v>
+        <v>70.811682000000005</v>
       </c>
       <c r="J20">
-        <v>37.962377</v>
+        <v>37.962376999999996</v>
       </c>
       <c r="K20">
-        <v>76.966269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>76.966268999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3365,13 +3412,13 @@
         <v>15.628797</v>
       </c>
       <c r="D21">
-        <v>531.674746</v>
+        <v>531.67474600000003</v>
       </c>
       <c r="E21">
-        <v>30.593341</v>
+        <v>30.593340999999999</v>
       </c>
       <c r="F21">
-        <v>19.95172</v>
+        <v>19.951720000000002</v>
       </c>
       <c r="G21">
         <v>31.284502</v>
@@ -3380,16 +3427,17 @@
         <v>50.499896</v>
       </c>
       <c r="I21">
-        <v>55.694906</v>
+        <v>55.694906000000003</v>
       </c>
       <c r="J21">
-        <v>32.488935</v>
+        <v>32.488934999999998</v>
       </c>
       <c r="K21">
-        <v>68.336009</v>
+        <v>68.336009000000004</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/real_world_graph_profile.xlsx
+++ b/excel/real_world_graph_profile.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0A1238-A826-4FB9-B12F-A51A3E6D68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2115" windowWidth="27330" windowHeight="13080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="warp_execution_efficiency" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="gld_transactions_per_request" sheetId="3" r:id="rId3"/>
     <sheet name="gld_efficiency" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
   <si>
     <t>Polak</t>
   </si>
@@ -114,23 +108,16 @@
   <si>
     <t>CF</t>
   </si>
-  <si>
-    <t>Datasets</t>
-  </si>
-  <si>
-    <t>Datasets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,15 +125,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,25 +172,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -248,7 +220,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -282,7 +254,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -317,10 +288,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,17 +463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,564 +502,564 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>71.096935000000002</v>
+        <v>71.096935</v>
       </c>
       <c r="C2">
         <v>26.134328</v>
       </c>
       <c r="D2">
-        <v>80.182721999999998</v>
+        <v>80.182722</v>
       </c>
       <c r="E2">
-        <v>59.952513000000003</v>
+        <v>59.952513</v>
       </c>
       <c r="F2">
-        <v>92.915120000000002</v>
+        <v>92.91512</v>
       </c>
       <c r="G2">
-        <v>78.411499000000006</v>
+        <v>78.41149900000001</v>
       </c>
       <c r="H2">
-        <v>73.275245999999996</v>
+        <v>73.275246</v>
       </c>
       <c r="I2">
-        <v>68.583591999999996</v>
+        <v>68.583592</v>
       </c>
       <c r="J2">
-        <v>83.989968000000005</v>
+        <v>83.989968</v>
       </c>
       <c r="K2">
-        <v>75.082898999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>75.082899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>46.898265000000002</v>
+        <v>46.898265</v>
       </c>
       <c r="C3">
         <v>14.485649</v>
       </c>
       <c r="D3">
-        <v>73.507095000000007</v>
+        <v>73.50709500000001</v>
       </c>
       <c r="E3">
-        <v>51.584513999999999</v>
+        <v>51.584514</v>
       </c>
       <c r="F3">
-        <v>94.814549999999997</v>
+        <v>94.81455</v>
       </c>
       <c r="G3">
-        <v>74.955222000000006</v>
+        <v>74.95522200000001</v>
       </c>
       <c r="H3">
-        <v>70.197935999999999</v>
+        <v>70.197936</v>
       </c>
       <c r="I3">
-        <v>65.857313000000005</v>
+        <v>65.857313</v>
       </c>
       <c r="J3">
-        <v>68.781722000000002</v>
+        <v>68.781722</v>
       </c>
       <c r="K3">
-        <v>82.019346999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>82.019347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>53.673549000000001</v>
+        <v>53.673549</v>
       </c>
       <c r="C4">
         <v>13.520871</v>
       </c>
       <c r="D4">
-        <v>66.303083999999998</v>
+        <v>66.303084</v>
       </c>
       <c r="E4">
-        <v>43.323810999999999</v>
+        <v>43.323811</v>
       </c>
       <c r="F4">
-        <v>91.237931000000003</v>
+        <v>91.237931</v>
       </c>
       <c r="G4">
-        <v>72.857781000000003</v>
+        <v>72.857781</v>
       </c>
       <c r="H4">
-        <v>70.951265000000006</v>
+        <v>70.95126500000001</v>
       </c>
       <c r="I4">
-        <v>66.730748000000006</v>
+        <v>66.73074800000001</v>
       </c>
       <c r="J4">
-        <v>72.767032999999998</v>
+        <v>72.767033</v>
       </c>
       <c r="K4">
-        <v>82.045282999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>82.045283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>57.878613999999999</v>
+        <v>57.878614</v>
       </c>
       <c r="C5">
-        <v>29.693729999999999</v>
+        <v>29.69373</v>
       </c>
       <c r="D5">
-        <v>90.638797999999994</v>
+        <v>90.63879799999999</v>
       </c>
       <c r="E5">
-        <v>44.735987999999999</v>
+        <v>44.735988</v>
       </c>
       <c r="F5">
         <v>98.262</v>
       </c>
       <c r="G5">
-        <v>70.224536999999998</v>
+        <v>70.224537</v>
       </c>
       <c r="H5">
-        <v>74.993487000000002</v>
+        <v>74.993487</v>
       </c>
       <c r="I5">
-        <v>71.340738999999999</v>
+        <v>71.340739</v>
       </c>
       <c r="J5">
-        <v>57.552354999999999</v>
+        <v>57.552355</v>
       </c>
       <c r="K5">
-        <v>72.361197000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>72.361197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>36.128928000000002</v>
+        <v>36.128928</v>
       </c>
       <c r="C6">
-        <v>8.9847079999999995</v>
+        <v>8.984707999999999</v>
       </c>
       <c r="D6">
-        <v>90.802933999999993</v>
+        <v>90.80293399999999</v>
       </c>
       <c r="E6">
-        <v>48.647074000000003</v>
+        <v>48.647074</v>
       </c>
       <c r="F6">
-        <v>85.617886999999996</v>
+        <v>85.617887</v>
       </c>
       <c r="G6">
-        <v>86.284554999999997</v>
+        <v>86.284555</v>
       </c>
       <c r="H6">
-        <v>64.637004000000005</v>
+        <v>64.637004</v>
       </c>
       <c r="I6">
-        <v>66.668391999999997</v>
+        <v>66.668392</v>
       </c>
       <c r="J6">
-        <v>85.299577999999997</v>
+        <v>85.299578</v>
       </c>
       <c r="K6">
-        <v>92.103042000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>92.103042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>55.391418000000002</v>
+        <v>55.391418</v>
       </c>
       <c r="C7">
-        <v>19.475031999999999</v>
+        <v>19.475032</v>
       </c>
       <c r="D7">
-        <v>76.298434999999998</v>
+        <v>76.298435</v>
       </c>
       <c r="E7">
-        <v>51.553013999999997</v>
+        <v>51.553014</v>
       </c>
       <c r="F7">
-        <v>86.794785000000005</v>
+        <v>86.794785</v>
       </c>
       <c r="G7">
-        <v>79.643747000000005</v>
+        <v>79.643747</v>
       </c>
       <c r="H7">
         <v>68.736863</v>
       </c>
       <c r="I7">
-        <v>65.287797999999995</v>
+        <v>65.287798</v>
       </c>
       <c r="J7">
-        <v>78.943915000000004</v>
+        <v>78.943915</v>
       </c>
       <c r="K7">
-        <v>78.518494000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>78.518494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>75.952538000000004</v>
+        <v>75.952538</v>
       </c>
       <c r="C8">
-        <v>26.865030000000001</v>
+        <v>26.86503</v>
       </c>
       <c r="D8">
-        <v>75.135964999999999</v>
+        <v>75.135965</v>
       </c>
       <c r="E8">
-        <v>48.682662999999998</v>
+        <v>48.682663</v>
       </c>
       <c r="F8">
-        <v>87.229563999999996</v>
+        <v>87.229564</v>
       </c>
       <c r="G8">
-        <v>80.559758000000002</v>
+        <v>80.559758</v>
       </c>
       <c r="H8">
-        <v>70.116917000000001</v>
+        <v>70.116917</v>
       </c>
       <c r="I8">
-        <v>65.959269000000006</v>
+        <v>65.95926900000001</v>
       </c>
       <c r="J8">
-        <v>83.625507999999996</v>
+        <v>83.625508</v>
       </c>
       <c r="K8">
-        <v>70.634308000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>70.634308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>40.905611999999998</v>
+        <v>40.905612</v>
       </c>
       <c r="C9">
-        <v>15.332641000000001</v>
+        <v>15.332641</v>
       </c>
       <c r="D9">
-        <v>73.978111999999996</v>
+        <v>73.978112</v>
       </c>
       <c r="E9">
-        <v>47.215283999999997</v>
+        <v>47.215284</v>
       </c>
       <c r="F9">
-        <v>84.291010999999997</v>
+        <v>84.291011</v>
       </c>
       <c r="G9">
-        <v>81.585059999999999</v>
+        <v>81.58506</v>
       </c>
       <c r="H9">
-        <v>67.924122999999994</v>
+        <v>67.92412299999999</v>
       </c>
       <c r="I9">
-        <v>64.993787999999995</v>
+        <v>64.993788</v>
       </c>
       <c r="J9">
-        <v>78.673090999999999</v>
+        <v>78.673091</v>
       </c>
       <c r="K9">
-        <v>81.370874999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>81.370875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>48.081502999999998</v>
+        <v>48.081503</v>
       </c>
       <c r="C10">
         <v>13.682212</v>
       </c>
       <c r="D10">
-        <v>69.739874999999998</v>
+        <v>69.739875</v>
       </c>
       <c r="E10">
-        <v>36.061056999999998</v>
+        <v>36.061057</v>
       </c>
       <c r="F10">
-        <v>85.844997000000006</v>
+        <v>85.84499700000001</v>
       </c>
       <c r="G10">
-        <v>73.253607000000002</v>
+        <v>73.253607</v>
       </c>
       <c r="H10">
-        <v>71.039105000000006</v>
+        <v>71.03910500000001</v>
       </c>
       <c r="I10">
-        <v>67.744034999999997</v>
+        <v>67.744035</v>
       </c>
       <c r="J10">
-        <v>70.860856999999996</v>
+        <v>70.860857</v>
       </c>
       <c r="K10">
-        <v>83.427176000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>83.427176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>59.434924000000002</v>
+        <v>59.434924</v>
       </c>
       <c r="C11">
-        <v>25.504138999999999</v>
+        <v>25.504139</v>
       </c>
       <c r="D11">
-        <v>71.867472000000006</v>
+        <v>71.86747200000001</v>
       </c>
       <c r="E11">
-        <v>60.213107999999998</v>
+        <v>60.213108</v>
       </c>
       <c r="F11">
-        <v>85.611352999999994</v>
+        <v>85.61135299999999</v>
       </c>
       <c r="G11">
-        <v>87.219944999999996</v>
+        <v>87.219945</v>
       </c>
       <c r="H11">
-        <v>68.101016999999999</v>
+        <v>68.101017</v>
       </c>
       <c r="I11">
         <v>63.428348</v>
       </c>
       <c r="J11">
-        <v>84.338134999999994</v>
+        <v>84.33813499999999</v>
       </c>
       <c r="K11">
-        <v>89.822314000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>89.82231400000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>49.733634000000002</v>
+        <v>49.733634</v>
       </c>
       <c r="C12">
         <v>22.796253</v>
       </c>
       <c r="D12">
-        <v>80.424046000000004</v>
+        <v>80.424046</v>
       </c>
       <c r="E12">
-        <v>73.068951999999996</v>
+        <v>73.068952</v>
       </c>
       <c r="F12">
-        <v>82.037982999999997</v>
+        <v>82.037983</v>
       </c>
       <c r="G12">
-        <v>91.282736999999997</v>
+        <v>91.282737</v>
       </c>
       <c r="H12">
-        <v>61.381188999999999</v>
+        <v>61.381189</v>
       </c>
       <c r="I12">
-        <v>63.768987000000003</v>
+        <v>63.768987</v>
       </c>
       <c r="J12">
-        <v>90.731971000000001</v>
+        <v>90.731971</v>
       </c>
       <c r="K12">
-        <v>94.005420000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>94.00542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>55.778072000000002</v>
+        <v>55.778072</v>
       </c>
       <c r="C13">
         <v>22.637428</v>
       </c>
       <c r="D13">
-        <v>72.166449999999998</v>
+        <v>72.16645</v>
       </c>
       <c r="E13">
-        <v>57.152316999999996</v>
+        <v>57.152317</v>
       </c>
       <c r="F13">
-        <v>81.499466999999996</v>
+        <v>81.499467</v>
       </c>
       <c r="G13">
-        <v>85.713115999999999</v>
+        <v>85.713116</v>
       </c>
       <c r="H13">
-        <v>66.815406999999993</v>
+        <v>66.81540699999999</v>
       </c>
       <c r="I13">
-        <v>64.022541000000004</v>
+        <v>64.022541</v>
       </c>
       <c r="J13">
-        <v>85.495737000000005</v>
+        <v>85.49573700000001</v>
       </c>
       <c r="K13">
-        <v>87.242378000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>87.242378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>55.197015999999998</v>
+        <v>55.197016</v>
       </c>
       <c r="C14">
         <v>23.039116</v>
       </c>
       <c r="D14">
-        <v>72.723935999999995</v>
+        <v>72.72393599999999</v>
       </c>
       <c r="E14">
-        <v>59.988301999999997</v>
+        <v>59.988302</v>
       </c>
       <c r="F14">
-        <v>80.391963000000004</v>
+        <v>80.391963</v>
       </c>
       <c r="G14">
-        <v>86.497066000000004</v>
+        <v>86.497066</v>
       </c>
       <c r="H14">
-        <v>65.597256000000002</v>
+        <v>65.597256</v>
       </c>
       <c r="I14">
-        <v>63.957056999999999</v>
+        <v>63.957057</v>
       </c>
       <c r="J14">
-        <v>87.092212000000004</v>
+        <v>87.092212</v>
       </c>
       <c r="K14">
-        <v>87.958710999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>87.95871099999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>61.941066999999997</v>
+        <v>61.941067</v>
       </c>
       <c r="D15">
         <v>95.24512</v>
       </c>
       <c r="E15">
-        <v>45.054000000000002</v>
+        <v>45.054</v>
       </c>
       <c r="F15">
-        <v>98.540555999999995</v>
+        <v>98.540556</v>
       </c>
       <c r="G15">
-        <v>56.612867999999999</v>
+        <v>56.612868</v>
       </c>
       <c r="H15">
-        <v>77.911090999999999</v>
+        <v>77.911091</v>
       </c>
       <c r="I15">
-        <v>74.225746999999998</v>
+        <v>74.225747</v>
       </c>
       <c r="J15">
-        <v>60.086561000000003</v>
+        <v>60.086561</v>
       </c>
       <c r="K15">
-        <v>72.691297000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>72.69129700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>65.015812999999994</v>
+        <v>65.01581299999999</v>
       </c>
       <c r="C16">
-        <v>29.849610999999999</v>
+        <v>29.849611</v>
       </c>
       <c r="D16">
-        <v>80.374375000000001</v>
+        <v>80.374375</v>
       </c>
       <c r="E16">
-        <v>86.690580999999995</v>
+        <v>86.69058099999999</v>
       </c>
       <c r="F16">
-        <v>82.157804999999996</v>
+        <v>82.157805</v>
       </c>
       <c r="G16">
-        <v>95.189345000000003</v>
+        <v>95.189345</v>
       </c>
       <c r="H16">
-        <v>65.424575000000004</v>
+        <v>65.424575</v>
       </c>
       <c r="I16">
         <v>62.712837</v>
       </c>
       <c r="J16">
-        <v>97.456935999999999</v>
+        <v>97.456936</v>
       </c>
       <c r="K16">
-        <v>91.931695000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>91.931695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>57.770986999999998</v>
+        <v>57.770987</v>
       </c>
       <c r="C17">
         <v>30.226775</v>
       </c>
       <c r="D17">
-        <v>75.569381000000007</v>
+        <v>75.56938100000001</v>
       </c>
       <c r="E17">
         <v>77.252032</v>
       </c>
       <c r="F17">
-        <v>86.692417000000006</v>
+        <v>86.69241700000001</v>
       </c>
       <c r="G17">
-        <v>91.383447000000004</v>
+        <v>91.383447</v>
       </c>
       <c r="H17">
-        <v>61.661476999999998</v>
+        <v>61.661477</v>
       </c>
       <c r="I17">
-        <v>61.783523000000002</v>
+        <v>61.783523</v>
       </c>
       <c r="J17">
         <v>93.565331</v>
       </c>
       <c r="K17">
-        <v>93.011551999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>93.01155199999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1100,34 +1067,34 @@
         <v>49.692605</v>
       </c>
       <c r="C18">
-        <v>23.934381999999999</v>
+        <v>23.934382</v>
       </c>
       <c r="D18">
-        <v>75.044444999999996</v>
+        <v>75.044445</v>
       </c>
       <c r="E18">
-        <v>70.863392000000005</v>
+        <v>70.863392</v>
       </c>
       <c r="F18">
-        <v>82.635465999999994</v>
+        <v>82.63546599999999</v>
       </c>
       <c r="G18">
-        <v>90.182203999999999</v>
+        <v>90.182204</v>
       </c>
       <c r="H18">
-        <v>62.831409000000001</v>
+        <v>62.831409</v>
       </c>
       <c r="I18">
-        <v>62.980988000000004</v>
+        <v>62.980988</v>
       </c>
       <c r="J18">
-        <v>88.843502999999998</v>
+        <v>88.843503</v>
       </c>
       <c r="K18">
-        <v>88.742838000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>88.74283800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1135,112 +1102,108 @@
         <v>61.234133</v>
       </c>
       <c r="D19">
-        <v>95.108317999999997</v>
+        <v>95.108318</v>
       </c>
       <c r="E19">
-        <v>44.503537999999999</v>
+        <v>44.503538</v>
       </c>
       <c r="F19">
-        <v>98.545294999999996</v>
+        <v>98.545295</v>
       </c>
       <c r="G19">
         <v>53.872422</v>
       </c>
       <c r="H19">
-        <v>77.900591000000006</v>
+        <v>77.90059100000001</v>
       </c>
       <c r="I19">
-        <v>74.175449999999998</v>
+        <v>74.17545</v>
       </c>
       <c r="J19">
-        <v>59.585039000000002</v>
+        <v>59.585039</v>
       </c>
       <c r="K19">
-        <v>72.695447000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>72.695447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>40.991152999999997</v>
+        <v>40.991153</v>
       </c>
       <c r="D20">
-        <v>81.216080000000005</v>
+        <v>81.21608000000001</v>
       </c>
       <c r="E20">
-        <v>88.075011000000003</v>
+        <v>88.075011</v>
       </c>
       <c r="F20">
-        <v>73.837838000000005</v>
+        <v>73.837838</v>
       </c>
       <c r="G20">
-        <v>88.986169000000004</v>
+        <v>88.986169</v>
       </c>
       <c r="H20">
         <v>28.447416</v>
       </c>
       <c r="I20">
-        <v>58.028087999999997</v>
+        <v>58.028088</v>
       </c>
       <c r="J20">
         <v>97.125422</v>
       </c>
       <c r="K20">
-        <v>94.228649000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>94.228649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>59.085644000000002</v>
+        <v>59.085644</v>
       </c>
       <c r="D21">
-        <v>78.271619000000001</v>
+        <v>78.271619</v>
       </c>
       <c r="E21">
-        <v>81.097741999999997</v>
+        <v>81.097742</v>
       </c>
       <c r="F21">
-        <v>74.847125000000005</v>
+        <v>74.84712500000001</v>
       </c>
       <c r="G21">
-        <v>91.978328000000005</v>
+        <v>91.978328</v>
       </c>
       <c r="H21">
         <v>61.607253</v>
       </c>
       <c r="I21">
-        <v>62.954354000000002</v>
+        <v>62.954354</v>
       </c>
       <c r="J21">
-        <v>93.187764999999999</v>
+        <v>93.187765</v>
       </c>
       <c r="K21">
-        <v>94.307640000000006</v>
+        <v>94.30764000000001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1270,7 @@
         <v>1767780</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1305,7 @@
         <v>363417</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1340,7 @@
         <v>746526</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1412,7 +1375,7 @@
         <v>344214</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,7 +1410,7 @@
         <v>8156204</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1482,7 +1445,7 @@
         <v>5748057</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1480,7 @@
         <v>10288161</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1552,7 +1515,7 @@
         <v>11917277</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1587,7 +1550,7 @@
         <v>5202538</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1622,7 +1585,7 @@
         <v>19783750</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1657,7 +1620,7 @@
         <v>149114744</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1692,7 +1655,7 @@
         <v>53446776</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1727,7 +1690,7 @@
         <v>84605647</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1722,7 @@
         <v>6453355</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1794,7 +1757,7 @@
         <v>1866387963</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1829,7 +1792,7 @@
         <v>487375265</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1864,7 +1827,7 @@
         <v>539683293</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,7 +1859,7 @@
         <v>26136535</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1928,7 +1891,7 @@
         <v>16885597715</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1961,23 +1924,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2009,47 +1968,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.9554169999999997</v>
+        <v>6.955417</v>
       </c>
       <c r="C2">
-        <v>2.3578209999999999</v>
+        <v>2.357821</v>
       </c>
       <c r="D2">
-        <v>3.5054970000000001</v>
+        <v>3.505497</v>
       </c>
       <c r="E2">
-        <v>1.5725769999999999</v>
+        <v>1.572577</v>
       </c>
       <c r="F2">
-        <v>4.9960709999999997</v>
+        <v>4.996071</v>
       </c>
       <c r="G2">
-        <v>2.1463350000000001</v>
+        <v>2.146335</v>
       </c>
       <c r="H2">
-        <v>1.5781719999999999</v>
+        <v>1.578172</v>
       </c>
       <c r="I2">
         <v>1.319199</v>
       </c>
       <c r="J2">
-        <v>4.5438140000000002</v>
+        <v>4.543814</v>
       </c>
       <c r="K2">
-        <v>3.0709270000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.070927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6.9339219999999999</v>
+        <v>6.933922</v>
       </c>
       <c r="C3">
         <v>1.673162</v>
@@ -2058,28 +2017,28 @@
         <v>1.625977</v>
       </c>
       <c r="E3">
-        <v>1.1731849999999999</v>
+        <v>1.173185</v>
       </c>
       <c r="F3">
-        <v>7.3276940000000002</v>
+        <v>7.327694</v>
       </c>
       <c r="G3">
-        <v>2.0954700000000002</v>
+        <v>2.09547</v>
       </c>
       <c r="H3">
-        <v>1.2224900000000001</v>
+        <v>1.22249</v>
       </c>
       <c r="I3">
         <v>1.227236</v>
       </c>
       <c r="J3">
-        <v>7.5949900000000001</v>
+        <v>7.59499</v>
       </c>
       <c r="K3">
-        <v>9.5041010000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>9.504101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2087,191 +2046,191 @@
         <v>7.033182</v>
       </c>
       <c r="C4">
-        <v>1.8244549999999999</v>
+        <v>1.824455</v>
       </c>
       <c r="D4">
-        <v>1.5541499999999999</v>
+        <v>1.55415</v>
       </c>
       <c r="E4">
         <v>1.158935</v>
       </c>
       <c r="F4">
-        <v>6.5034809999999998</v>
+        <v>6.503481</v>
       </c>
       <c r="G4">
         <v>2.068892</v>
       </c>
       <c r="H4">
-        <v>1.2080850000000001</v>
+        <v>1.208085</v>
       </c>
       <c r="I4">
-        <v>1.2479469999999999</v>
+        <v>1.247947</v>
       </c>
       <c r="J4">
         <v>7.918704</v>
       </c>
       <c r="K4">
-        <v>9.9661930000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>9.966193000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.1787130000000001</v>
+        <v>6.178713</v>
       </c>
       <c r="C5">
-        <v>1.1114550000000001</v>
+        <v>1.111455</v>
       </c>
       <c r="D5">
-        <v>1.0218339999999999</v>
+        <v>1.021834</v>
       </c>
       <c r="E5">
-        <v>1.0182880000000001</v>
+        <v>1.018288</v>
       </c>
       <c r="F5">
-        <v>7.0557730000000003</v>
+        <v>7.055773</v>
       </c>
       <c r="G5">
-        <v>3.2263039999999998</v>
+        <v>3.226304</v>
       </c>
       <c r="H5">
-        <v>1.0186029999999999</v>
+        <v>1.018603</v>
       </c>
       <c r="I5">
-        <v>1.0420039999999999</v>
+        <v>1.042004</v>
       </c>
       <c r="J5">
-        <v>9.2866320000000009</v>
+        <v>9.286632000000001</v>
       </c>
       <c r="K5">
-        <v>11.318754999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>11.318755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.3566820000000002</v>
+        <v>6.356682</v>
       </c>
       <c r="C6">
-        <v>1.7682869999999999</v>
+        <v>1.768287</v>
       </c>
       <c r="D6">
-        <v>5.8123290000000001</v>
+        <v>5.812329</v>
       </c>
       <c r="E6">
-        <v>2.4282729999999999</v>
+        <v>2.428273</v>
       </c>
       <c r="F6">
-        <v>7.1084050000000003</v>
+        <v>7.108405</v>
       </c>
       <c r="G6">
         <v>1.333194</v>
       </c>
       <c r="H6">
-        <v>2.0596040000000002</v>
+        <v>2.059604</v>
       </c>
       <c r="I6">
-        <v>1.6084540000000001</v>
+        <v>1.608454</v>
       </c>
       <c r="J6">
-        <v>7.2157869999999997</v>
+        <v>7.215787</v>
       </c>
       <c r="K6">
-        <v>4.3801969999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4.380197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6.8575980000000003</v>
+        <v>6.857598</v>
       </c>
       <c r="C7">
         <v>2.882234</v>
       </c>
       <c r="D7">
-        <v>3.4512019999999999</v>
+        <v>3.451202</v>
       </c>
       <c r="E7">
         <v>1.627178</v>
       </c>
       <c r="F7">
-        <v>6.3600810000000001</v>
+        <v>6.360081</v>
       </c>
       <c r="G7">
-        <v>1.9010309999999999</v>
+        <v>1.901031</v>
       </c>
       <c r="H7">
-        <v>1.6313139999999999</v>
+        <v>1.631314</v>
       </c>
       <c r="I7">
-        <v>1.4081779999999999</v>
+        <v>1.408178</v>
       </c>
       <c r="J7">
-        <v>6.1665159999999997</v>
+        <v>6.166516</v>
       </c>
       <c r="K7">
-        <v>5.1072899999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.10729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>7.0047969999999999</v>
+        <v>7.004797</v>
       </c>
       <c r="C8">
-        <v>2.8659439999999998</v>
+        <v>2.865944</v>
       </c>
       <c r="D8">
-        <v>3.8886859999999999</v>
+        <v>3.888686</v>
       </c>
       <c r="E8">
-        <v>1.6717789999999999</v>
+        <v>1.671779</v>
       </c>
       <c r="F8">
-        <v>4.6505489999999998</v>
+        <v>4.650549</v>
       </c>
       <c r="G8">
-        <v>2.0299309999999999</v>
+        <v>2.029931</v>
       </c>
       <c r="H8">
-        <v>1.7210479999999999</v>
+        <v>1.721048</v>
       </c>
       <c r="I8">
         <v>1.380096</v>
       </c>
       <c r="J8">
-        <v>4.4076909999999998</v>
+        <v>4.407691</v>
       </c>
       <c r="K8">
         <v>3.572031</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5.6406749999999999</v>
+        <v>5.640675</v>
       </c>
       <c r="C9">
-        <v>2.7975840000000001</v>
+        <v>2.797584</v>
       </c>
       <c r="D9">
-        <v>3.9109690000000001</v>
+        <v>3.910969</v>
       </c>
       <c r="E9">
-        <v>1.7000040000000001</v>
+        <v>1.700004</v>
       </c>
       <c r="F9">
-        <v>5.6809750000000001</v>
+        <v>5.680975</v>
       </c>
       <c r="G9">
         <v>1.729225</v>
@@ -2280,51 +2239,51 @@
         <v>1.683481</v>
       </c>
       <c r="I9">
-        <v>1.4419599999999999</v>
+        <v>1.44196</v>
       </c>
       <c r="J9">
-        <v>6.2513880000000004</v>
+        <v>6.251388</v>
       </c>
       <c r="K9">
-        <v>5.0118010000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.011801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.6877009999999997</v>
+        <v>6.687701</v>
       </c>
       <c r="C10">
-        <v>1.8060339999999999</v>
+        <v>1.806034</v>
       </c>
       <c r="D10">
-        <v>1.6527590000000001</v>
+        <v>1.652759</v>
       </c>
       <c r="E10">
         <v>1.186742</v>
       </c>
       <c r="F10">
-        <v>7.4305459999999997</v>
+        <v>7.430546</v>
       </c>
       <c r="G10">
-        <v>2.5651860000000002</v>
+        <v>2.565186</v>
       </c>
       <c r="H10">
-        <v>1.2074320000000001</v>
+        <v>1.207432</v>
       </c>
       <c r="I10">
-        <v>1.2747630000000001</v>
+        <v>1.274763</v>
       </c>
       <c r="J10">
-        <v>8.2605360000000001</v>
+        <v>8.260536</v>
       </c>
       <c r="K10">
         <v>11.667774</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2332,19 +2291,19 @@
         <v>7.200164</v>
       </c>
       <c r="C11">
-        <v>4.2133269999999996</v>
+        <v>4.213327</v>
       </c>
       <c r="D11">
-        <v>4.3066469999999999</v>
+        <v>4.306647</v>
       </c>
       <c r="E11">
         <v>1.946796</v>
       </c>
       <c r="F11">
-        <v>7.5806380000000004</v>
+        <v>7.580638</v>
       </c>
       <c r="G11">
-        <v>1.5081659999999999</v>
+        <v>1.508166</v>
       </c>
       <c r="H11">
         <v>1.866736</v>
@@ -2353,141 +2312,141 @@
         <v>1.557725</v>
       </c>
       <c r="J11">
-        <v>5.6582559999999997</v>
+        <v>5.658256</v>
       </c>
       <c r="K11">
         <v>7.139837</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7.6060189999999999</v>
+        <v>7.606019</v>
       </c>
       <c r="C12">
-        <v>5.4866929999999998</v>
+        <v>5.486693</v>
       </c>
       <c r="D12">
         <v>12.312709</v>
       </c>
       <c r="E12">
-        <v>4.0472010000000003</v>
+        <v>4.047201</v>
       </c>
       <c r="F12">
-        <v>8.5911220000000004</v>
+        <v>8.591122</v>
       </c>
       <c r="G12">
         <v>1.335253</v>
       </c>
       <c r="H12">
-        <v>2.7667320000000002</v>
+        <v>2.766732</v>
       </c>
       <c r="I12">
-        <v>1.7586079999999999</v>
+        <v>1.758608</v>
       </c>
       <c r="J12">
-        <v>6.3910010000000002</v>
+        <v>6.391001</v>
       </c>
       <c r="K12">
-        <v>3.5506129999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.550613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7.2499580000000003</v>
+        <v>7.249958</v>
       </c>
       <c r="C13">
-        <v>4.0561699999999998</v>
+        <v>4.05617</v>
       </c>
       <c r="D13">
-        <v>5.1726970000000003</v>
+        <v>5.172697</v>
       </c>
       <c r="E13">
-        <v>2.1166049999999998</v>
+        <v>2.116605</v>
       </c>
       <c r="F13">
-        <v>7.2652060000000001</v>
+        <v>7.265206</v>
       </c>
       <c r="G13">
-        <v>1.5368189999999999</v>
+        <v>1.536819</v>
       </c>
       <c r="H13">
-        <v>1.9974430000000001</v>
+        <v>1.997443</v>
       </c>
       <c r="I13">
         <v>1.557034</v>
       </c>
       <c r="J13">
-        <v>5.5562149999999999</v>
+        <v>5.556215</v>
       </c>
       <c r="K13">
         <v>4.699128</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>7.2276949999999998</v>
+        <v>7.227695</v>
       </c>
       <c r="C14">
-        <v>4.4065599999999998</v>
+        <v>4.40656</v>
       </c>
       <c r="D14">
-        <v>6.1097780000000004</v>
+        <v>6.109778</v>
       </c>
       <c r="E14">
-        <v>2.3634200000000001</v>
+        <v>2.36342</v>
       </c>
       <c r="F14">
-        <v>7.2323560000000002</v>
+        <v>7.232356</v>
       </c>
       <c r="G14">
         <v>1.512529</v>
       </c>
       <c r="H14">
-        <v>2.1506099999999999</v>
+        <v>2.15061</v>
       </c>
       <c r="I14">
         <v>1.594403</v>
       </c>
       <c r="J14">
-        <v>5.3687509999999996</v>
+        <v>5.368751</v>
       </c>
       <c r="K14">
         <v>4.18309</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>8.2686720000000005</v>
+        <v>8.268672</v>
       </c>
       <c r="D15">
-        <v>1.0075369999999999</v>
+        <v>1.007537</v>
       </c>
       <c r="E15">
         <v>1.01128</v>
       </c>
       <c r="F15">
-        <v>5.9171339999999999</v>
+        <v>5.917134</v>
       </c>
       <c r="G15">
-        <v>9.3413880000000002</v>
+        <v>9.341388</v>
       </c>
       <c r="H15">
         <v>1.011555</v>
       </c>
       <c r="I15">
-        <v>1.0199339999999999</v>
+        <v>1.019934</v>
       </c>
       <c r="J15">
         <v>10.226362</v>
@@ -2496,12 +2455,12 @@
         <v>12.888951</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>10.115106000000001</v>
+        <v>10.115106</v>
       </c>
       <c r="C16">
         <v>12.154479</v>
@@ -2510,77 +2469,77 @@
         <v>18.608304</v>
       </c>
       <c r="E16">
-        <v>4.4359859999999998</v>
+        <v>4.435986</v>
       </c>
       <c r="F16">
-        <v>6.8082789999999997</v>
+        <v>6.808279</v>
       </c>
       <c r="G16">
-        <v>1.4396450000000001</v>
+        <v>1.439645</v>
       </c>
       <c r="H16">
-        <v>3.3953790000000001</v>
+        <v>3.395379</v>
       </c>
       <c r="I16">
         <v>2.384439</v>
       </c>
       <c r="J16">
-        <v>5.0529999999999999</v>
+        <v>5.053</v>
       </c>
       <c r="K16">
-        <v>3.1332849999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.133285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>7.6501729999999997</v>
+        <v>7.650173</v>
       </c>
       <c r="C17">
-        <v>8.0250470000000007</v>
+        <v>8.025047000000001</v>
       </c>
       <c r="D17">
         <v>11.159348</v>
       </c>
       <c r="E17">
-        <v>3.5056129999999999</v>
+        <v>3.505613</v>
       </c>
       <c r="F17">
-        <v>7.3075970000000003</v>
+        <v>7.307597</v>
       </c>
       <c r="G17">
-        <v>1.3720760000000001</v>
+        <v>1.372076</v>
       </c>
       <c r="H17">
-        <v>2.7718600000000002</v>
+        <v>2.77186</v>
       </c>
       <c r="I17">
-        <v>1.7834760000000001</v>
+        <v>1.783476</v>
       </c>
       <c r="J17">
-        <v>5.0394069999999997</v>
+        <v>5.039407</v>
       </c>
       <c r="K17">
         <v>3.55342</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6.8957680000000003</v>
+        <v>6.895768</v>
       </c>
       <c r="C18">
-        <v>6.0433969999999997</v>
+        <v>6.043397</v>
       </c>
       <c r="D18">
-        <v>9.4749459999999992</v>
+        <v>9.474945999999999</v>
       </c>
       <c r="E18">
-        <v>3.0431689999999998</v>
+        <v>3.043169</v>
       </c>
       <c r="F18">
         <v>6.511628</v>
@@ -2589,24 +2548,24 @@
         <v>1.351566</v>
       </c>
       <c r="H18">
-        <v>2.5161950000000002</v>
+        <v>2.516195</v>
       </c>
       <c r="I18">
         <v>1.685916</v>
       </c>
       <c r="J18">
-        <v>6.0608930000000001</v>
+        <v>6.060893</v>
       </c>
       <c r="K18">
-        <v>3.8385280000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.838528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>7.2340249999999999</v>
+        <v>7.234025</v>
       </c>
       <c r="D19">
         <v>1.007763</v>
@@ -2615,10 +2574,10 @@
         <v>1.011476</v>
       </c>
       <c r="F19">
-        <v>4.9373740000000002</v>
+        <v>4.937374</v>
       </c>
       <c r="G19">
-        <v>9.3168190000000006</v>
+        <v>9.316819000000001</v>
       </c>
       <c r="H19">
         <v>1.011738</v>
@@ -2627,96 +2586,90 @@
         <v>1.018321</v>
       </c>
       <c r="J19">
-        <v>9.0855750000000004</v>
+        <v>9.085575</v>
       </c>
       <c r="K19">
-        <v>11.350967000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>11.350967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.78134300000000001</v>
+        <v>0.781343</v>
       </c>
       <c r="D20">
-        <v>3.6286109999999998</v>
+        <v>3.628611</v>
       </c>
       <c r="E20">
         <v>4.82273</v>
       </c>
       <c r="F20">
-        <v>6.4581569999999999</v>
+        <v>6.458157</v>
       </c>
       <c r="G20">
-        <v>1.5209140000000001</v>
+        <v>1.520914</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.5825990000000001</v>
+        <v>2.582599</v>
       </c>
       <c r="J20">
         <v>5.735868</v>
       </c>
       <c r="K20">
-        <v>3.5552280000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.555228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>7.7991989999999998</v>
+        <v>7.799199</v>
       </c>
       <c r="D21">
-        <v>0.88685899999999995</v>
+        <v>0.886859</v>
       </c>
       <c r="E21">
-        <v>4.2186050000000002</v>
+        <v>4.218605</v>
       </c>
       <c r="F21">
-        <v>8.6159490000000005</v>
+        <v>8.615949000000001</v>
       </c>
       <c r="G21">
         <v>1.38846</v>
       </c>
       <c r="H21">
-        <v>2.9391419999999999</v>
+        <v>2.939142</v>
       </c>
       <c r="I21">
-        <v>1.8464210000000001</v>
+        <v>1.846421</v>
       </c>
       <c r="J21">
-        <v>5.4485409999999996</v>
+        <v>5.448541</v>
       </c>
       <c r="K21">
-        <v>2.9909180000000002</v>
+        <v>2.990918</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2748,100 +2701,100 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>16.555464000000001</v>
+        <v>16.555464</v>
       </c>
       <c r="C2">
-        <v>12.095573999999999</v>
+        <v>12.095574</v>
       </c>
       <c r="D2">
-        <v>41.378419999999998</v>
+        <v>41.37842</v>
       </c>
       <c r="E2">
-        <v>30.386839999999999</v>
+        <v>30.38684</v>
       </c>
       <c r="F2">
         <v>25.460016</v>
       </c>
       <c r="G2">
-        <v>37.517508999999997</v>
+        <v>37.517509</v>
       </c>
       <c r="H2">
-        <v>42.214899000000003</v>
+        <v>42.214899</v>
       </c>
       <c r="I2">
-        <v>28.769390000000001</v>
+        <v>28.76939</v>
       </c>
       <c r="J2">
-        <v>45.271692999999999</v>
+        <v>45.271693</v>
       </c>
       <c r="K2">
         <v>50.429862</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>17.844708000000001</v>
+        <v>17.844708</v>
       </c>
       <c r="C3">
         <v>11.512406</v>
       </c>
       <c r="D3">
-        <v>47.076459999999997</v>
+        <v>47.07646</v>
       </c>
       <c r="E3">
-        <v>25.476756999999999</v>
+        <v>25.476757</v>
       </c>
       <c r="F3">
-        <v>22.416132000000001</v>
+        <v>22.416132</v>
       </c>
       <c r="G3">
-        <v>25.576578999999999</v>
+        <v>25.576579</v>
       </c>
       <c r="H3">
-        <v>23.383535999999999</v>
+        <v>23.383536</v>
       </c>
       <c r="I3">
-        <v>20.823695000000001</v>
+        <v>20.823695</v>
       </c>
       <c r="J3">
-        <v>27.000741000000001</v>
+        <v>27.000741</v>
       </c>
       <c r="K3">
-        <v>32.784232000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>32.784232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>18.392500999999999</v>
+        <v>18.392501</v>
       </c>
       <c r="C4">
-        <v>11.374178000000001</v>
+        <v>11.374178</v>
       </c>
       <c r="D4">
-        <v>50.431477999999998</v>
+        <v>50.431478</v>
       </c>
       <c r="E4">
-        <v>26.258230999999999</v>
+        <v>26.258231</v>
       </c>
       <c r="F4">
-        <v>22.208455000000001</v>
+        <v>22.208455</v>
       </c>
       <c r="G4">
-        <v>24.568155000000001</v>
+        <v>24.568155</v>
       </c>
       <c r="H4">
-        <v>23.286456000000001</v>
+        <v>23.286456</v>
       </c>
       <c r="I4">
         <v>20.776567</v>
@@ -2850,30 +2803,30 @@
         <v>25.84629</v>
       </c>
       <c r="K4">
-        <v>32.595038000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>32.595038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>30.747478999999998</v>
+        <v>30.747479</v>
       </c>
       <c r="C5">
         <v>11.37903</v>
       </c>
       <c r="D5">
-        <v>26.598617999999998</v>
+        <v>26.598618</v>
       </c>
       <c r="E5">
-        <v>17.079129999999999</v>
+        <v>17.07913</v>
       </c>
       <c r="F5">
-        <v>22.815345000000001</v>
+        <v>22.815345</v>
       </c>
       <c r="G5">
-        <v>36.996166000000002</v>
+        <v>36.996166</v>
       </c>
       <c r="H5">
         <v>14.121262</v>
@@ -2882,13 +2835,13 @@
         <v>13.857991</v>
       </c>
       <c r="J5">
-        <v>27.343689999999999</v>
+        <v>27.34369</v>
       </c>
       <c r="K5">
         <v>28.498092</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2896,34 +2849,34 @@
         <v>14.709794</v>
       </c>
       <c r="C6">
-        <v>12.341316000000001</v>
+        <v>12.341316</v>
       </c>
       <c r="D6">
-        <v>36.252428999999999</v>
+        <v>36.252429</v>
       </c>
       <c r="E6">
-        <v>29.151237999999999</v>
+        <v>29.151238</v>
       </c>
       <c r="F6">
         <v>20.562732</v>
       </c>
       <c r="G6">
-        <v>27.480506999999999</v>
+        <v>27.480507</v>
       </c>
       <c r="H6">
-        <v>46.266294000000002</v>
+        <v>46.266294</v>
       </c>
       <c r="I6">
-        <v>46.742527000000003</v>
+        <v>46.742527</v>
       </c>
       <c r="J6">
-        <v>26.739609000000002</v>
+        <v>26.739609</v>
       </c>
       <c r="K6">
-        <v>67.338171000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>67.338171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2934,31 +2887,31 @@
         <v>12.069395</v>
       </c>
       <c r="D7">
-        <v>53.488171999999999</v>
+        <v>53.488172</v>
       </c>
       <c r="E7">
         <v>35.141852</v>
       </c>
       <c r="F7">
-        <v>22.461480999999999</v>
+        <v>22.461481</v>
       </c>
       <c r="G7">
         <v>29.122553</v>
       </c>
       <c r="H7">
-        <v>36.030023999999997</v>
+        <v>36.030024</v>
       </c>
       <c r="I7">
-        <v>33.817846000000003</v>
+        <v>33.817846</v>
       </c>
       <c r="J7">
-        <v>28.221143999999999</v>
+        <v>28.221144</v>
       </c>
       <c r="K7">
-        <v>49.886330999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>49.886331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2969,31 +2922,31 @@
         <v>12.546462</v>
       </c>
       <c r="D8">
-        <v>50.501663000000001</v>
+        <v>50.501663</v>
       </c>
       <c r="E8">
-        <v>35.349138000000004</v>
+        <v>35.349138</v>
       </c>
       <c r="F8">
-        <v>25.118970999999998</v>
+        <v>25.118971</v>
       </c>
       <c r="G8">
-        <v>28.883233000000001</v>
+        <v>28.883233</v>
       </c>
       <c r="H8">
-        <v>39.721811000000002</v>
+        <v>39.721811</v>
       </c>
       <c r="I8">
         <v>29.505575</v>
       </c>
       <c r="J8">
-        <v>44.105941000000001</v>
+        <v>44.105941</v>
       </c>
       <c r="K8">
-        <v>42.784041000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>42.784041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3004,80 +2957,80 @@
         <v>12.068821</v>
       </c>
       <c r="D9">
-        <v>48.895404999999997</v>
+        <v>48.895405</v>
       </c>
       <c r="E9">
-        <v>33.747903000000001</v>
+        <v>33.747903</v>
       </c>
       <c r="F9">
-        <v>22.633559999999999</v>
+        <v>22.63356</v>
       </c>
       <c r="G9">
-        <v>26.068940000000001</v>
+        <v>26.06894</v>
       </c>
       <c r="H9">
-        <v>37.747912999999997</v>
+        <v>37.747913</v>
       </c>
       <c r="I9">
-        <v>34.727764000000001</v>
+        <v>34.727764</v>
       </c>
       <c r="J9">
         <v>27.314166</v>
       </c>
       <c r="K9">
-        <v>52.005115000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>52.005115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>17.366192999999999</v>
+        <v>17.366193</v>
       </c>
       <c r="C10">
-        <v>11.410513999999999</v>
+        <v>11.410514</v>
       </c>
       <c r="D10">
-        <v>51.921747000000003</v>
+        <v>51.921747</v>
       </c>
       <c r="E10">
-        <v>26.961753000000002</v>
+        <v>26.961753</v>
       </c>
       <c r="F10">
         <v>21.953979</v>
       </c>
       <c r="G10">
-        <v>23.974208000000001</v>
+        <v>23.974208</v>
       </c>
       <c r="H10">
         <v>24.0657</v>
       </c>
       <c r="I10">
-        <v>21.713881000000001</v>
+        <v>21.713881</v>
       </c>
       <c r="J10">
-        <v>23.101967999999999</v>
+        <v>23.101968</v>
       </c>
       <c r="K10">
         <v>31.193572</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>16.286494999999999</v>
+        <v>16.286495</v>
       </c>
       <c r="C11">
         <v>12.08752</v>
       </c>
       <c r="D11">
-        <v>60.498480000000001</v>
+        <v>60.49848</v>
       </c>
       <c r="E11">
-        <v>41.683520999999999</v>
+        <v>41.683521</v>
       </c>
       <c r="F11">
         <v>21.1493</v>
@@ -3086,19 +3039,19 @@
         <v>21.851651</v>
       </c>
       <c r="H11">
-        <v>39.812575000000002</v>
+        <v>39.812575</v>
       </c>
       <c r="I11">
-        <v>37.589815000000002</v>
+        <v>37.589815</v>
       </c>
       <c r="J11">
         <v>28.688326</v>
       </c>
       <c r="K11">
-        <v>53.703197000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>53.703197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3109,74 +3062,74 @@
         <v>12.558361</v>
       </c>
       <c r="D12">
-        <v>32.975158999999998</v>
+        <v>32.975159</v>
       </c>
       <c r="E12">
-        <v>28.802665000000001</v>
+        <v>28.802665</v>
       </c>
       <c r="F12">
-        <v>19.831558000000001</v>
+        <v>19.831558</v>
       </c>
       <c r="G12">
-        <v>31.064941000000001</v>
+        <v>31.064941</v>
       </c>
       <c r="H12">
         <v>49.787875</v>
       </c>
       <c r="I12">
-        <v>53.358913999999999</v>
+        <v>53.358914</v>
       </c>
       <c r="J12">
-        <v>28.918462999999999</v>
+        <v>28.918463</v>
       </c>
       <c r="K12">
-        <v>70.218817999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>70.218818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>16.077566000000001</v>
+        <v>16.077566</v>
       </c>
       <c r="C13">
         <v>12.236058</v>
       </c>
       <c r="D13">
-        <v>48.596806000000001</v>
+        <v>48.596806</v>
       </c>
       <c r="E13">
         <v>36.201304</v>
       </c>
       <c r="F13">
-        <v>21.607199999999999</v>
+        <v>21.6072</v>
       </c>
       <c r="G13">
-        <v>23.858913000000001</v>
+        <v>23.858913</v>
       </c>
       <c r="H13">
-        <v>42.660738000000002</v>
+        <v>42.660738</v>
       </c>
       <c r="I13">
-        <v>39.290095999999998</v>
+        <v>39.290096</v>
       </c>
       <c r="J13">
-        <v>32.248851999999999</v>
+        <v>32.248852</v>
       </c>
       <c r="K13">
-        <v>54.574520999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>54.574521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>16.000603999999999</v>
+        <v>16.000604</v>
       </c>
       <c r="C14">
-        <v>12.357723999999999</v>
+        <v>12.357724</v>
       </c>
       <c r="D14">
         <v>44.722552</v>
@@ -3185,33 +3138,33 @@
         <v>35.04027</v>
       </c>
       <c r="F14">
-        <v>21.670729999999999</v>
+        <v>21.67073</v>
       </c>
       <c r="G14">
         <v>24.674785</v>
       </c>
       <c r="H14">
-        <v>44.828316000000001</v>
+        <v>44.828316</v>
       </c>
       <c r="I14">
-        <v>41.420560999999999</v>
+        <v>41.420561</v>
       </c>
       <c r="J14">
-        <v>33.757736999999999</v>
+        <v>33.757737</v>
       </c>
       <c r="K14">
-        <v>56.032001000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>56.032001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>27.617329000000002</v>
+        <v>27.617329</v>
       </c>
       <c r="D15">
-        <v>25.560949000000001</v>
+        <v>25.560949</v>
       </c>
       <c r="E15">
         <v>16.682755</v>
@@ -3220,7 +3173,7 @@
         <v>22.273367</v>
       </c>
       <c r="G15">
-        <v>30.218540999999998</v>
+        <v>30.218541</v>
       </c>
       <c r="H15">
         <v>13.514509</v>
@@ -3229,48 +3182,48 @@
         <v>13.286913</v>
       </c>
       <c r="J15">
-        <v>26.000786999999999</v>
+        <v>26.000787</v>
       </c>
       <c r="K15">
-        <v>25.455991000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25.455991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>14.940792999999999</v>
+        <v>14.940793</v>
       </c>
       <c r="C16">
         <v>14.518362</v>
       </c>
       <c r="D16">
-        <v>27.674292000000001</v>
+        <v>27.674292</v>
       </c>
       <c r="E16">
-        <v>27.745681999999999</v>
+        <v>27.745682</v>
       </c>
       <c r="F16">
         <v>21.220443</v>
       </c>
       <c r="G16">
-        <v>39.442780999999997</v>
+        <v>39.442781</v>
       </c>
       <c r="H16">
-        <v>56.135542000000001</v>
+        <v>56.135542</v>
       </c>
       <c r="I16">
-        <v>68.967169999999996</v>
+        <v>68.96717</v>
       </c>
       <c r="J16">
         <v>38.183785</v>
       </c>
       <c r="K16">
-        <v>73.606385000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>73.606385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3281,31 +3234,31 @@
         <v>12.748338</v>
       </c>
       <c r="D17">
-        <v>37.238714999999999</v>
+        <v>37.238715</v>
       </c>
       <c r="E17">
-        <v>33.336643000000002</v>
+        <v>33.336643</v>
       </c>
       <c r="F17">
-        <v>20.828099999999999</v>
+        <v>20.8281</v>
       </c>
       <c r="G17">
-        <v>28.125488000000001</v>
+        <v>28.125488</v>
       </c>
       <c r="H17">
         <v>48.790028</v>
       </c>
       <c r="I17">
-        <v>51.764943000000002</v>
+        <v>51.764943</v>
       </c>
       <c r="J17">
-        <v>31.105381999999999</v>
+        <v>31.105382</v>
       </c>
       <c r="K17">
-        <v>66.430550999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>66.43055099999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -3316,48 +3269,48 @@
         <v>12.408261</v>
       </c>
       <c r="D18">
-        <v>38.511785000000003</v>
+        <v>38.511785</v>
       </c>
       <c r="E18">
-        <v>33.115312000000003</v>
+        <v>33.115312</v>
       </c>
       <c r="F18">
         <v>21.328654</v>
       </c>
       <c r="G18">
-        <v>27.289663000000001</v>
+        <v>27.289663</v>
       </c>
       <c r="H18">
-        <v>48.306967999999998</v>
+        <v>48.306968</v>
       </c>
       <c r="I18">
-        <v>48.510634000000003</v>
+        <v>48.510634</v>
       </c>
       <c r="J18">
-        <v>28.163613999999999</v>
+        <v>28.163614</v>
       </c>
       <c r="K18">
-        <v>65.026430000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>65.02643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>31.173379000000001</v>
+        <v>31.173379</v>
       </c>
       <c r="D19">
-        <v>25.560276999999999</v>
+        <v>25.560277</v>
       </c>
       <c r="E19">
-        <v>16.700683000000001</v>
+        <v>16.700683</v>
       </c>
       <c r="F19">
-        <v>22.766905999999999</v>
+        <v>22.766906</v>
       </c>
       <c r="G19">
-        <v>32.521690999999997</v>
+        <v>32.521691</v>
       </c>
       <c r="H19">
         <v>13.530595</v>
@@ -3366,13 +3319,13 @@
         <v>13.286719</v>
       </c>
       <c r="J19">
-        <v>29.115826999999999</v>
+        <v>29.115827</v>
       </c>
       <c r="K19">
-        <v>28.787451999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>28.787452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -3380,31 +3333,31 @@
         <v>131.022806</v>
       </c>
       <c r="D20">
-        <v>148.81187299999999</v>
+        <v>148.811873</v>
       </c>
       <c r="E20">
-        <v>25.915458000000001</v>
+        <v>25.915458</v>
       </c>
       <c r="F20">
-        <v>20.490911000000001</v>
+        <v>20.490911</v>
       </c>
       <c r="G20">
-        <v>38.045076999999999</v>
+        <v>38.045077</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>70.811682000000005</v>
+        <v>70.811682</v>
       </c>
       <c r="J20">
-        <v>37.962376999999996</v>
+        <v>37.962377</v>
       </c>
       <c r="K20">
-        <v>76.966268999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>76.966269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3412,13 +3365,13 @@
         <v>15.628797</v>
       </c>
       <c r="D21">
-        <v>531.67474600000003</v>
+        <v>531.674746</v>
       </c>
       <c r="E21">
-        <v>30.593340999999999</v>
+        <v>30.593341</v>
       </c>
       <c r="F21">
-        <v>19.951720000000002</v>
+        <v>19.95172</v>
       </c>
       <c r="G21">
         <v>31.284502</v>
@@ -3427,17 +3380,16 @@
         <v>50.499896</v>
       </c>
       <c r="I21">
-        <v>55.694906000000003</v>
+        <v>55.694906</v>
       </c>
       <c r="J21">
-        <v>32.488934999999998</v>
+        <v>32.488935</v>
       </c>
       <c r="K21">
-        <v>68.336009000000004</v>
+        <v>68.336009</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/real_world_graph_profile.xlsx
+++ b/excel/real_world_graph_profile.xlsx
@@ -2611,9 +2611,6 @@
       <c r="G20">
         <v>1.520914</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>2.582599</v>
       </c>
@@ -3344,9 +3341,6 @@
       <c r="G20">
         <v>38.045077</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>70.811682</v>
       </c>

--- a/excel/real_world_graph_profile.xlsx
+++ b/excel/real_world_graph_profile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
   <si>
     <t>Polak</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>GroupTC-HS</t>
+  </si>
+  <si>
+    <t>Datasets</t>
   </si>
   <si>
     <t>WN</t>
@@ -471,6 +474,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +510,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>71.096935</v>
@@ -534,12 +540,12 @@
         <v>83.989968</v>
       </c>
       <c r="K2">
-        <v>75.082899</v>
+        <v>74.85670399999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>46.898265</v>
@@ -569,12 +575,12 @@
         <v>68.781722</v>
       </c>
       <c r="K3">
-        <v>82.019347</v>
+        <v>82.019752</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>53.673549</v>
@@ -604,12 +610,12 @@
         <v>72.767033</v>
       </c>
       <c r="K4">
-        <v>82.045283</v>
+        <v>82.04433400000001</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>57.878614</v>
@@ -639,12 +645,12 @@
         <v>57.552355</v>
       </c>
       <c r="K5">
-        <v>72.361197</v>
+        <v>72.361431</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>36.128928</v>
@@ -674,12 +680,12 @@
         <v>85.299578</v>
       </c>
       <c r="K6">
-        <v>92.103042</v>
+        <v>91.99444099999999</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>55.391418</v>
@@ -709,12 +715,12 @@
         <v>78.943915</v>
       </c>
       <c r="K7">
-        <v>78.518494</v>
+        <v>78.522216</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>75.952538</v>
@@ -744,12 +750,12 @@
         <v>83.625508</v>
       </c>
       <c r="K8">
-        <v>70.634308</v>
+        <v>70.56899199999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>40.905612</v>
@@ -779,12 +785,12 @@
         <v>78.673091</v>
       </c>
       <c r="K9">
-        <v>81.370875</v>
+        <v>81.33661499999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>48.081503</v>
@@ -814,12 +820,12 @@
         <v>70.860857</v>
       </c>
       <c r="K10">
-        <v>83.427176</v>
+        <v>83.42722999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>59.434924</v>
@@ -849,12 +855,12 @@
         <v>84.33813499999999</v>
       </c>
       <c r="K11">
-        <v>89.82231400000001</v>
+        <v>89.822171</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>49.733634</v>
@@ -884,12 +890,12 @@
         <v>90.731971</v>
       </c>
       <c r="K12">
-        <v>94.00542</v>
+        <v>93.495626</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>55.778072</v>
@@ -919,12 +925,12 @@
         <v>85.49573700000001</v>
       </c>
       <c r="K13">
-        <v>87.242378</v>
+        <v>87.142172</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>55.197016</v>
@@ -954,12 +960,12 @@
         <v>87.092212</v>
       </c>
       <c r="K14">
-        <v>87.95871099999999</v>
+        <v>87.762428</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>61.941067</v>
@@ -986,12 +992,12 @@
         <v>60.086561</v>
       </c>
       <c r="K15">
-        <v>72.69129700000001</v>
+        <v>72.691294</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>65.01581299999999</v>
@@ -1021,12 +1027,12 @@
         <v>97.456936</v>
       </c>
       <c r="K16">
-        <v>91.931695</v>
+        <v>88.75796699999999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>57.770987</v>
@@ -1056,12 +1062,12 @@
         <v>93.565331</v>
       </c>
       <c r="K17">
-        <v>93.01155199999999</v>
+        <v>92.209141</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>49.692605</v>
@@ -1091,12 +1097,12 @@
         <v>88.843503</v>
       </c>
       <c r="K18">
-        <v>88.74283800000001</v>
+        <v>88.54284699999999</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>61.234133</v>
@@ -1123,12 +1129,12 @@
         <v>59.585039</v>
       </c>
       <c r="K19">
-        <v>72.695447</v>
+        <v>72.695441</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>40.991153</v>
@@ -1155,12 +1161,12 @@
         <v>97.125422</v>
       </c>
       <c r="K20">
-        <v>94.228649</v>
+        <v>86.391222</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>59.085644</v>
@@ -1187,7 +1193,7 @@
         <v>93.187765</v>
       </c>
       <c r="K21">
-        <v>94.30764000000001</v>
+        <v>93.209444</v>
       </c>
     </row>
   </sheetData>
@@ -1204,6 +1210,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1246,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1724134</v>
@@ -1267,12 +1276,12 @@
         <v>2893866</v>
       </c>
       <c r="K2">
-        <v>1767780</v>
+        <v>1767574</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1288213</v>
@@ -1302,12 +1311,12 @@
         <v>968919</v>
       </c>
       <c r="K3">
-        <v>363417</v>
+        <v>363833</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2613298</v>
@@ -1337,12 +1346,12 @@
         <v>2261762</v>
       </c>
       <c r="K4">
-        <v>746526</v>
+        <v>746650</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1262877</v>
@@ -1372,12 +1381,12 @@
         <v>731439</v>
       </c>
       <c r="K5">
-        <v>344214</v>
+        <v>344216</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>37188435</v>
@@ -1407,12 +1416,12 @@
         <v>13002124</v>
       </c>
       <c r="K6">
-        <v>8156204</v>
+        <v>8156188</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>16190200</v>
@@ -1442,12 +1451,12 @@
         <v>13013369</v>
       </c>
       <c r="K7">
-        <v>5748057</v>
+        <v>5747718</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>12698660</v>
@@ -1477,12 +1486,12 @@
         <v>20029061</v>
       </c>
       <c r="K8">
-        <v>10288161</v>
+        <v>10288172</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>43167751</v>
@@ -1512,12 +1521,12 @@
         <v>26544808</v>
       </c>
       <c r="K9">
-        <v>11917277</v>
+        <v>11918483</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>22855690</v>
@@ -1547,12 +1556,12 @@
         <v>15178391</v>
       </c>
       <c r="K10">
-        <v>5202538</v>
+        <v>5202539</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>97399027</v>
@@ -1582,12 +1591,12 @@
         <v>83410957</v>
       </c>
       <c r="K11">
-        <v>19783750</v>
+        <v>19783876</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>470101628</v>
@@ -1617,12 +1626,12 @@
         <v>291912635</v>
       </c>
       <c r="K12">
-        <v>149114744</v>
+        <v>149114869</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>166382154</v>
@@ -1652,12 +1661,12 @@
         <v>150890037</v>
       </c>
       <c r="K13">
-        <v>53446776</v>
+        <v>53448669</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>244732710</v>
@@ -1687,12 +1696,12 @@
         <v>230537257</v>
       </c>
       <c r="K14">
-        <v>84605647</v>
+        <v>84606060</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>20904118</v>
@@ -1724,7 +1733,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>4335561322</v>
@@ -1754,12 +1763,12 @@
         <v>5492193712</v>
       </c>
       <c r="K16">
-        <v>1866387963</v>
+        <v>1866365486</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1528944333</v>
@@ -1789,12 +1798,12 @@
         <v>1459167865</v>
       </c>
       <c r="K17">
-        <v>487375265</v>
+        <v>487374950</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>1801273185</v>
@@ -1824,12 +1833,12 @@
         <v>1255456801</v>
       </c>
       <c r="K18">
-        <v>539683293</v>
+        <v>539686341</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>83788550</v>
@@ -1861,7 +1870,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>74720079634</v>
@@ -1888,12 +1897,12 @@
         <v>60373329172</v>
       </c>
       <c r="K20">
-        <v>16885597715</v>
+        <v>16730350543</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>33914698940</v>
@@ -1920,7 +1929,7 @@
         <v>30556998320</v>
       </c>
       <c r="K21">
-        <v>13066273457</v>
+        <v>13066545191</v>
       </c>
     </row>
   </sheetData>
@@ -1937,6 +1946,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1982,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>6.955417</v>
@@ -2000,12 +2012,12 @@
         <v>4.543814</v>
       </c>
       <c r="K2">
-        <v>3.070927</v>
+        <v>3.07196</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>6.933922</v>
@@ -2035,12 +2047,12 @@
         <v>7.59499</v>
       </c>
       <c r="K3">
-        <v>9.504101</v>
+        <v>9.49371</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>7.033182</v>
@@ -2070,12 +2082,12 @@
         <v>7.918704</v>
       </c>
       <c r="K4">
-        <v>9.966193000000001</v>
+        <v>9.963347000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>6.178713</v>
@@ -2105,12 +2117,12 @@
         <v>9.286632000000001</v>
       </c>
       <c r="K5">
-        <v>11.318755</v>
+        <v>11.31398</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>6.356682</v>
@@ -2140,12 +2152,12 @@
         <v>7.215787</v>
       </c>
       <c r="K6">
-        <v>4.380197</v>
+        <v>4.378134</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>6.857598</v>
@@ -2175,12 +2187,12 @@
         <v>6.166516</v>
       </c>
       <c r="K7">
-        <v>5.10729</v>
+        <v>5.107587</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>7.004797</v>
@@ -2210,12 +2222,12 @@
         <v>4.407691</v>
       </c>
       <c r="K8">
-        <v>3.572031</v>
+        <v>3.571611</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>5.640675</v>
@@ -2245,12 +2257,12 @@
         <v>6.251388</v>
       </c>
       <c r="K9">
-        <v>5.011801</v>
+        <v>5.011336</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>6.687701</v>
@@ -2280,12 +2292,12 @@
         <v>8.260536</v>
       </c>
       <c r="K10">
-        <v>11.667774</v>
+        <v>11.666833</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>7.200164</v>
@@ -2315,12 +2327,12 @@
         <v>5.658256</v>
       </c>
       <c r="K11">
-        <v>7.139837</v>
+        <v>7.139333</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>7.606019</v>
@@ -2350,12 +2362,12 @@
         <v>6.391001</v>
       </c>
       <c r="K12">
-        <v>3.550613</v>
+        <v>3.550772</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>7.249958</v>
@@ -2385,12 +2397,12 @@
         <v>5.556215</v>
       </c>
       <c r="K13">
-        <v>4.699128</v>
+        <v>4.69953</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>7.227695</v>
@@ -2420,12 +2432,12 @@
         <v>5.368751</v>
       </c>
       <c r="K14">
-        <v>4.18309</v>
+        <v>4.183846</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>8.268672</v>
@@ -2452,12 +2464,12 @@
         <v>10.226362</v>
       </c>
       <c r="K15">
-        <v>12.888951</v>
+        <v>12.882196</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>10.115106</v>
@@ -2487,12 +2499,12 @@
         <v>5.053</v>
       </c>
       <c r="K16">
-        <v>3.133285</v>
+        <v>3.116137</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>7.650173</v>
@@ -2522,12 +2534,12 @@
         <v>5.039407</v>
       </c>
       <c r="K17">
-        <v>3.55342</v>
+        <v>3.55288</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>6.895768</v>
@@ -2557,12 +2569,12 @@
         <v>6.060893</v>
       </c>
       <c r="K18">
-        <v>3.838528</v>
+        <v>3.839044</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>7.234025</v>
@@ -2589,12 +2601,12 @@
         <v>9.085575</v>
       </c>
       <c r="K19">
-        <v>11.350967</v>
+        <v>11.34649</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>0.781343</v>
@@ -2618,12 +2630,12 @@
         <v>5.735868</v>
       </c>
       <c r="K20">
-        <v>3.555228</v>
+        <v>3.550013</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>7.799199</v>
@@ -2650,7 +2662,7 @@
         <v>5.448541</v>
       </c>
       <c r="K21">
-        <v>2.990918</v>
+        <v>2.991866</v>
       </c>
     </row>
   </sheetData>
@@ -2667,6 +2679,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2700,7 +2715,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>16.555464</v>
@@ -2730,12 +2745,12 @@
         <v>45.271693</v>
       </c>
       <c r="K2">
-        <v>50.429862</v>
+        <v>50.430386</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>17.844708</v>
@@ -2765,12 +2780,12 @@
         <v>27.000741</v>
       </c>
       <c r="K3">
-        <v>32.784232</v>
+        <v>32.782666</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>18.392501</v>
@@ -2800,12 +2815,12 @@
         <v>25.84629</v>
       </c>
       <c r="K4">
-        <v>32.595038</v>
+        <v>32.59878</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>30.747479</v>
@@ -2835,12 +2850,12 @@
         <v>27.34369</v>
       </c>
       <c r="K5">
-        <v>28.498092</v>
+        <v>28.509947</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>14.709794</v>
@@ -2870,12 +2885,12 @@
         <v>26.739609</v>
       </c>
       <c r="K6">
-        <v>67.338171</v>
+        <v>67.370031</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>17.116716</v>
@@ -2905,12 +2920,12 @@
         <v>28.221144</v>
       </c>
       <c r="K7">
-        <v>49.886331</v>
+        <v>49.883639</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>15.727658</v>
@@ -2940,12 +2955,12 @@
         <v>44.105941</v>
       </c>
       <c r="K8">
-        <v>42.784041</v>
+        <v>42.788118</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>16.206388</v>
@@ -2975,12 +2990,12 @@
         <v>27.314166</v>
       </c>
       <c r="K9">
-        <v>52.005115</v>
+        <v>52.005437</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>17.366193</v>
@@ -3010,12 +3025,12 @@
         <v>23.101968</v>
       </c>
       <c r="K10">
-        <v>31.193572</v>
+        <v>31.196084</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>16.286495</v>
@@ -3045,12 +3060,12 @@
         <v>28.688326</v>
       </c>
       <c r="K11">
-        <v>53.703197</v>
+        <v>53.706665</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>14.717229</v>
@@ -3080,12 +3095,12 @@
         <v>28.918463</v>
       </c>
       <c r="K12">
-        <v>70.218818</v>
+        <v>70.215619</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>16.077566</v>
@@ -3115,12 +3130,12 @@
         <v>32.248852</v>
       </c>
       <c r="K13">
-        <v>54.574521</v>
+        <v>54.567224</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>16.000604</v>
@@ -3150,12 +3165,12 @@
         <v>33.757737</v>
       </c>
       <c r="K14">
-        <v>56.032001</v>
+        <v>56.021738</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>27.617329</v>
@@ -3182,12 +3197,12 @@
         <v>26.000787</v>
       </c>
       <c r="K15">
-        <v>25.455991</v>
+        <v>25.469338</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>14.940793</v>
@@ -3217,12 +3232,12 @@
         <v>38.183785</v>
       </c>
       <c r="K16">
-        <v>73.606385</v>
+        <v>74.01255</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>15.770552</v>
@@ -3252,12 +3267,12 @@
         <v>31.105382</v>
       </c>
       <c r="K17">
-        <v>66.43055099999999</v>
+        <v>66.44068900000001</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>15.73922</v>
@@ -3287,12 +3302,12 @@
         <v>28.163614</v>
       </c>
       <c r="K18">
-        <v>65.02643</v>
+        <v>65.017385</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>31.173379</v>
@@ -3319,12 +3334,12 @@
         <v>29.115827</v>
       </c>
       <c r="K19">
-        <v>28.787452</v>
+        <v>28.798812</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>131.022806</v>
@@ -3348,12 +3363,12 @@
         <v>37.962377</v>
       </c>
       <c r="K20">
-        <v>76.966269</v>
+        <v>77.73144499999999</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>15.628797</v>
@@ -3380,7 +3395,7 @@
         <v>32.488935</v>
       </c>
       <c r="K21">
-        <v>68.336009</v>
+        <v>68.312934</v>
       </c>
     </row>
   </sheetData>

--- a/excel/real_world_graph_profile.xlsx
+++ b/excel/real_world_graph_profile.xlsx
@@ -540,7 +540,7 @@
         <v>83.989968</v>
       </c>
       <c r="K2">
-        <v>74.85670399999999</v>
+        <v>74.842124</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -575,7 +575,7 @@
         <v>68.781722</v>
       </c>
       <c r="K3">
-        <v>82.019752</v>
+        <v>82.019994</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -610,7 +610,7 @@
         <v>72.767033</v>
       </c>
       <c r="K4">
-        <v>82.04433400000001</v>
+        <v>82.043796</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -645,7 +645,7 @@
         <v>57.552355</v>
       </c>
       <c r="K5">
-        <v>72.361431</v>
+        <v>72.361273</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,7 +680,7 @@
         <v>85.299578</v>
       </c>
       <c r="K6">
-        <v>91.99444099999999</v>
+        <v>90.62459800000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +715,7 @@
         <v>78.943915</v>
       </c>
       <c r="K7">
-        <v>78.522216</v>
+        <v>78.518708</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +750,7 @@
         <v>83.625508</v>
       </c>
       <c r="K8">
-        <v>70.56899199999999</v>
+        <v>70.559577</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -785,7 +785,7 @@
         <v>78.673091</v>
       </c>
       <c r="K9">
-        <v>81.33661499999999</v>
+        <v>81.149231</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -820,7 +820,7 @@
         <v>70.860857</v>
       </c>
       <c r="K10">
-        <v>83.42722999999999</v>
+        <v>83.42728700000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -855,7 +855,7 @@
         <v>84.33813499999999</v>
       </c>
       <c r="K11">
-        <v>89.822171</v>
+        <v>89.822239</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -890,7 +890,7 @@
         <v>90.731971</v>
       </c>
       <c r="K12">
-        <v>93.495626</v>
+        <v>89.772651</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -925,7 +925,7 @@
         <v>85.49573700000001</v>
       </c>
       <c r="K13">
-        <v>87.142172</v>
+        <v>86.599085</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -960,7 +960,7 @@
         <v>87.092212</v>
       </c>
       <c r="K14">
-        <v>87.762428</v>
+        <v>86.755745</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -992,7 +992,7 @@
         <v>60.086561</v>
       </c>
       <c r="K15">
-        <v>72.691294</v>
+        <v>72.69129</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1027,7 +1027,7 @@
         <v>97.456936</v>
       </c>
       <c r="K16">
-        <v>88.75796699999999</v>
+        <v>81.07543200000001</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1062,7 +1062,7 @@
         <v>93.565331</v>
       </c>
       <c r="K17">
-        <v>92.209141</v>
+        <v>87.79813300000001</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1097,7 +1097,7 @@
         <v>88.843503</v>
       </c>
       <c r="K18">
-        <v>88.54284699999999</v>
+        <v>87.000912</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1129,7 +1129,7 @@
         <v>59.585039</v>
       </c>
       <c r="K19">
-        <v>72.695441</v>
+        <v>72.69544399999999</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1161,7 +1161,7 @@
         <v>97.125422</v>
       </c>
       <c r="K20">
-        <v>86.391222</v>
+        <v>83.52371599999999</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1193,7 +1193,7 @@
         <v>93.187765</v>
       </c>
       <c r="K21">
-        <v>93.209444</v>
+        <v>86.867188</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1276,7 @@
         <v>2893866</v>
       </c>
       <c r="K2">
-        <v>1767574</v>
+        <v>1768835</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1311,7 +1311,7 @@
         <v>968919</v>
       </c>
       <c r="K3">
-        <v>363833</v>
+        <v>363605</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1346,7 +1346,7 @@
         <v>2261762</v>
       </c>
       <c r="K4">
-        <v>746650</v>
+        <v>746579</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1381,7 +1381,7 @@
         <v>731439</v>
       </c>
       <c r="K5">
-        <v>344216</v>
+        <v>344220</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1416,7 +1416,7 @@
         <v>13002124</v>
       </c>
       <c r="K6">
-        <v>8156188</v>
+        <v>8156159</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1451,7 +1451,7 @@
         <v>13013369</v>
       </c>
       <c r="K7">
-        <v>5747718</v>
+        <v>5750419</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1486,7 +1486,7 @@
         <v>20029061</v>
       </c>
       <c r="K8">
-        <v>10288172</v>
+        <v>10285127</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1521,7 +1521,7 @@
         <v>26544808</v>
       </c>
       <c r="K9">
-        <v>11918483</v>
+        <v>11919276</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1556,7 +1556,7 @@
         <v>15178391</v>
       </c>
       <c r="K10">
-        <v>5202539</v>
+        <v>5202544</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1591,7 +1591,7 @@
         <v>83410957</v>
       </c>
       <c r="K11">
-        <v>19783876</v>
+        <v>19783898</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1626,7 +1626,7 @@
         <v>291912635</v>
       </c>
       <c r="K12">
-        <v>149114869</v>
+        <v>149115138</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1661,7 +1661,7 @@
         <v>150890037</v>
       </c>
       <c r="K13">
-        <v>53448669</v>
+        <v>53444876</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1696,7 +1696,7 @@
         <v>230537257</v>
       </c>
       <c r="K14">
-        <v>84606060</v>
+        <v>84606075</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1763,7 +1763,7 @@
         <v>5492193712</v>
       </c>
       <c r="K16">
-        <v>1866365486</v>
+        <v>1866370052</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1798,7 +1798,7 @@
         <v>1459167865</v>
       </c>
       <c r="K17">
-        <v>487374950</v>
+        <v>487374612</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1833,7 +1833,7 @@
         <v>1255456801</v>
       </c>
       <c r="K18">
-        <v>539686341</v>
+        <v>539683532</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1897,7 +1897,7 @@
         <v>60373329172</v>
       </c>
       <c r="K20">
-        <v>16730350543</v>
+        <v>16764941222</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1929,7 +1929,7 @@
         <v>30556998320</v>
       </c>
       <c r="K21">
-        <v>13066545191</v>
+        <v>13066278928</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2012,7 @@
         <v>4.543814</v>
       </c>
       <c r="K2">
-        <v>3.07196</v>
+        <v>3.069095</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2047,7 +2047,7 @@
         <v>7.59499</v>
       </c>
       <c r="K3">
-        <v>9.49371</v>
+        <v>9.499979</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2082,7 +2082,7 @@
         <v>7.918704</v>
       </c>
       <c r="K4">
-        <v>9.963347000000001</v>
+        <v>9.964525</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2117,7 +2117,7 @@
         <v>9.286632000000001</v>
       </c>
       <c r="K5">
-        <v>11.31398</v>
+        <v>11.31592</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2152,7 +2152,7 @@
         <v>7.215787</v>
       </c>
       <c r="K6">
-        <v>4.378134</v>
+        <v>4.380368</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2187,7 +2187,7 @@
         <v>6.166516</v>
       </c>
       <c r="K7">
-        <v>5.107587</v>
+        <v>5.106219</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2222,7 +2222,7 @@
         <v>4.407691</v>
       </c>
       <c r="K8">
-        <v>3.571611</v>
+        <v>3.572831</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2257,7 +2257,7 @@
         <v>6.251388</v>
       </c>
       <c r="K9">
-        <v>5.011336</v>
+        <v>5.011258</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2292,7 +2292,7 @@
         <v>8.260536</v>
       </c>
       <c r="K10">
-        <v>11.666833</v>
+        <v>11.667279</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2327,7 +2327,7 @@
         <v>5.658256</v>
       </c>
       <c r="K11">
-        <v>7.139333</v>
+        <v>7.13977</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2362,7 +2362,7 @@
         <v>6.391001</v>
       </c>
       <c r="K12">
-        <v>3.550772</v>
+        <v>3.549011</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2397,7 +2397,7 @@
         <v>5.556215</v>
       </c>
       <c r="K13">
-        <v>4.69953</v>
+        <v>4.700175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2432,7 +2432,7 @@
         <v>5.368751</v>
       </c>
       <c r="K14">
-        <v>4.183846</v>
+        <v>4.183839</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2464,7 +2464,7 @@
         <v>10.226362</v>
       </c>
       <c r="K15">
-        <v>12.882196</v>
+        <v>12.88468</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2499,7 +2499,7 @@
         <v>5.053</v>
       </c>
       <c r="K16">
-        <v>3.116137</v>
+        <v>3.117551</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2534,7 +2534,7 @@
         <v>5.039407</v>
       </c>
       <c r="K17">
-        <v>3.55288</v>
+        <v>3.551654</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2569,7 +2569,7 @@
         <v>6.060893</v>
       </c>
       <c r="K18">
-        <v>3.839044</v>
+        <v>3.838467</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2601,7 +2601,7 @@
         <v>9.085575</v>
       </c>
       <c r="K19">
-        <v>11.34649</v>
+        <v>11.347727</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2630,7 +2630,7 @@
         <v>5.735868</v>
       </c>
       <c r="K20">
-        <v>3.550013</v>
+        <v>3.550774</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2662,7 +2662,7 @@
         <v>5.448541</v>
       </c>
       <c r="K21">
-        <v>2.991866</v>
+        <v>2.9905</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2745,7 @@
         <v>45.271693</v>
       </c>
       <c r="K2">
-        <v>50.430386</v>
+        <v>50.433933</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2780,7 +2780,7 @@
         <v>27.000741</v>
       </c>
       <c r="K3">
-        <v>32.782666</v>
+        <v>32.780793</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2815,7 +2815,7 @@
         <v>25.84629</v>
       </c>
       <c r="K4">
-        <v>32.59878</v>
+        <v>32.598064</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2850,7 +2850,7 @@
         <v>27.34369</v>
       </c>
       <c r="K5">
-        <v>28.509947</v>
+        <v>28.504774</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2885,7 +2885,7 @@
         <v>26.739609</v>
       </c>
       <c r="K6">
-        <v>67.370031</v>
+        <v>67.33591800000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2920,7 +2920,7 @@
         <v>28.221144</v>
       </c>
       <c r="K7">
-        <v>49.883639</v>
+        <v>49.875182</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2955,7 +2955,7 @@
         <v>44.105941</v>
       </c>
       <c r="K8">
-        <v>42.788118</v>
+        <v>42.792426</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2990,7 +2990,7 @@
         <v>27.314166</v>
       </c>
       <c r="K9">
-        <v>52.005437</v>
+        <v>52.003516</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3025,7 +3025,7 @@
         <v>23.101968</v>
       </c>
       <c r="K10">
-        <v>31.196084</v>
+        <v>31.194865</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3060,7 +3060,7 @@
         <v>28.688326</v>
       </c>
       <c r="K11">
-        <v>53.706665</v>
+        <v>53.703274</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3095,7 +3095,7 @@
         <v>28.918463</v>
       </c>
       <c r="K12">
-        <v>70.215619</v>
+        <v>70.250327</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3130,7 +3130,7 @@
         <v>32.248852</v>
       </c>
       <c r="K13">
-        <v>54.567224</v>
+        <v>54.563376</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3165,7 +3165,7 @@
         <v>33.757737</v>
       </c>
       <c r="K14">
-        <v>56.021738</v>
+        <v>56.021382</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3197,7 +3197,7 @@
         <v>26.000787</v>
       </c>
       <c r="K15">
-        <v>25.469338</v>
+        <v>25.464429</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3232,7 +3232,7 @@
         <v>38.183785</v>
       </c>
       <c r="K16">
-        <v>74.01255</v>
+        <v>73.978745</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3267,7 +3267,7 @@
         <v>31.105382</v>
       </c>
       <c r="K17">
-        <v>66.44068900000001</v>
+        <v>66.46365299999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3302,7 +3302,7 @@
         <v>28.163614</v>
       </c>
       <c r="K18">
-        <v>65.017385</v>
+        <v>65.02746500000001</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3334,7 +3334,7 @@
         <v>29.115827</v>
       </c>
       <c r="K19">
-        <v>28.798812</v>
+        <v>28.795671</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3363,7 +3363,7 @@
         <v>37.962377</v>
       </c>
       <c r="K20">
-        <v>77.73144499999999</v>
+        <v>77.564954</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3395,7 +3395,7 @@
         <v>32.488935</v>
       </c>
       <c r="K21">
-        <v>68.312934</v>
+        <v>68.345524</v>
       </c>
     </row>
   </sheetData>
